--- a/Ontologia_ambientes.xlsx
+++ b/Ontologia_ambientes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JLMenegotto\Projetos\OntoBIM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jlmen\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA31D121-7D54-4F91-9DBB-B56E04D1F283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9841C7A8-281D-42FB-BB91-A162417855A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{54713FF2-A43C-4A02-94D3-353C9CB17DF5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="6" xr2:uid="{54713FF2-A43C-4A02-94D3-353C9CB17DF5}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjInfo" sheetId="6" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3070" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3064" uniqueCount="467">
   <si>
     <t>IfcPolyline</t>
   </si>
@@ -913,9 +913,6 @@
     <t>bloco</t>
   </si>
   <si>
-    <t>tem_elevador</t>
-  </si>
-  <si>
     <t>and or</t>
   </si>
   <si>
@@ -941,9 +938,6 @@
   </si>
   <si>
     <t>exactly</t>
-  </si>
-  <si>
-    <t>Abstrata EquivalentTo:</t>
   </si>
   <si>
     <t>ModeloBIM</t>
@@ -1500,6 +1494,12 @@
   </si>
   <si>
     <t>Anotações de ajuda</t>
+  </si>
+  <si>
+    <t>propriedade</t>
+  </si>
+  <si>
+    <t>Nova Abstrata EquivalentTo:</t>
   </si>
 </sst>
 </file>
@@ -1679,7 +1679,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1694,19 +1694,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -1758,7 +1745,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1889,19 +1876,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1914,7 +1898,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -12945,9 +12929,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C443A3DD-080C-431B-94F2-F6282C8E2BED}">
   <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12987,22 +12971,22 @@
         <v>217</v>
       </c>
       <c r="G1" s="41" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="H1" s="41" t="s">
+        <v>395</v>
+      </c>
+      <c r="I1" s="41" t="s">
         <v>397</v>
-      </c>
-      <c r="I1" s="41" t="s">
-        <v>399</v>
       </c>
       <c r="J1" s="41" t="s">
         <v>241</v>
       </c>
       <c r="K1" s="41" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="L1" s="41" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -13013,7 +12997,7 @@
         <v>243</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>264</v>
@@ -13040,8 +13024,8 @@
         <f>_xlfn.CONCAT("ZON",A2)</f>
         <v>ZON2</v>
       </c>
-      <c r="L2" s="53" t="s">
-        <v>421</v>
+      <c r="L2" s="52" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -13052,7 +13036,7 @@
         <v>243</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>264</v>
@@ -13079,8 +13063,8 @@
         <f t="shared" ref="K3:K19" si="0">_xlfn.CONCAT("ZON",A3)</f>
         <v>ZON3</v>
       </c>
-      <c r="L3" s="53" t="s">
-        <v>422</v>
+      <c r="L3" s="52" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -13091,7 +13075,7 @@
         <v>243</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>264</v>
@@ -13118,8 +13102,8 @@
         <f t="shared" si="0"/>
         <v>ZON4</v>
       </c>
-      <c r="L4" s="53" t="s">
-        <v>423</v>
+      <c r="L4" s="52" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -13130,7 +13114,7 @@
         <v>243</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>264</v>
@@ -13157,8 +13141,8 @@
         <f t="shared" si="0"/>
         <v>ZON5</v>
       </c>
-      <c r="L5" s="53" t="s">
-        <v>424</v>
+      <c r="L5" s="52" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -13169,7 +13153,7 @@
         <v>243</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>264</v>
@@ -13178,7 +13162,7 @@
         <v>233</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>210</v>
@@ -13196,8 +13180,8 @@
         <f t="shared" si="0"/>
         <v>ZON6</v>
       </c>
-      <c r="L6" s="53" t="s">
-        <v>425</v>
+      <c r="L6" s="52" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -13208,7 +13192,7 @@
         <v>243</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>264</v>
@@ -13217,7 +13201,7 @@
         <v>233</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>210</v>
@@ -13235,8 +13219,8 @@
         <f t="shared" si="0"/>
         <v>ZON7</v>
       </c>
-      <c r="L7" s="53" t="s">
-        <v>426</v>
+      <c r="L7" s="52" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -13247,7 +13231,7 @@
         <v>243</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>264</v>
@@ -13256,7 +13240,7 @@
         <v>233</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>210</v>
@@ -13274,8 +13258,8 @@
         <f t="shared" si="0"/>
         <v>ZON8</v>
       </c>
-      <c r="L8" s="53" t="s">
-        <v>427</v>
+      <c r="L8" s="52" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -13286,7 +13270,7 @@
         <v>243</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>264</v>
@@ -13295,7 +13279,7 @@
         <v>233</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>210</v>
@@ -13313,8 +13297,8 @@
         <f t="shared" si="0"/>
         <v>ZON9</v>
       </c>
-      <c r="L9" s="53" t="s">
-        <v>428</v>
+      <c r="L9" s="52" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -13325,7 +13309,7 @@
         <v>243</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>264</v>
@@ -13352,8 +13336,8 @@
         <f t="shared" si="0"/>
         <v>ZON10</v>
       </c>
-      <c r="L10" s="53" t="s">
-        <v>429</v>
+      <c r="L10" s="52" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -13364,7 +13348,7 @@
         <v>243</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>264</v>
@@ -13373,7 +13357,7 @@
         <v>234</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>210</v>
@@ -13391,8 +13375,8 @@
         <f t="shared" si="0"/>
         <v>ZON11</v>
       </c>
-      <c r="L11" s="53" t="s">
-        <v>430</v>
+      <c r="L11" s="52" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -13403,7 +13387,7 @@
         <v>243</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>264</v>
@@ -13412,7 +13396,7 @@
         <v>234</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>210</v>
@@ -13430,8 +13414,8 @@
         <f t="shared" si="0"/>
         <v>ZON12</v>
       </c>
-      <c r="L12" s="53" t="s">
-        <v>431</v>
+      <c r="L12" s="52" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -13442,7 +13426,7 @@
         <v>243</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>264</v>
@@ -13451,7 +13435,7 @@
         <v>234</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>210</v>
@@ -13469,8 +13453,8 @@
         <f t="shared" si="0"/>
         <v>ZON13</v>
       </c>
-      <c r="L13" s="53" t="s">
-        <v>432</v>
+      <c r="L13" s="52" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -13481,7 +13465,7 @@
         <v>243</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>264</v>
@@ -13490,7 +13474,7 @@
         <v>235</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G14" s="11" t="s">
         <v>210</v>
@@ -13508,8 +13492,8 @@
         <f t="shared" si="0"/>
         <v>ZON14</v>
       </c>
-      <c r="L14" s="53" t="s">
-        <v>433</v>
+      <c r="L14" s="52" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -13520,7 +13504,7 @@
         <v>243</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>264</v>
@@ -13529,7 +13513,7 @@
         <v>235</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="G15" s="11" t="s">
         <v>210</v>
@@ -13547,8 +13531,8 @@
         <f t="shared" si="0"/>
         <v>ZON15</v>
       </c>
-      <c r="L15" s="53" t="s">
-        <v>434</v>
+      <c r="L15" s="52" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -13559,7 +13543,7 @@
         <v>243</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>264</v>
@@ -13568,7 +13552,7 @@
         <v>236</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G16" s="11" t="s">
         <v>210</v>
@@ -13586,8 +13570,8 @@
         <f t="shared" si="0"/>
         <v>ZON16</v>
       </c>
-      <c r="L16" s="53" t="s">
-        <v>435</v>
+      <c r="L16" s="52" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -13598,7 +13582,7 @@
         <v>243</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>264</v>
@@ -13607,7 +13591,7 @@
         <v>236</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G17" s="11" t="s">
         <v>210</v>
@@ -13625,8 +13609,8 @@
         <f t="shared" si="0"/>
         <v>ZON17</v>
       </c>
-      <c r="L17" s="53" t="s">
-        <v>436</v>
+      <c r="L17" s="52" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -13637,7 +13621,7 @@
         <v>243</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>264</v>
@@ -13646,7 +13630,7 @@
         <v>236</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G18" s="11" t="s">
         <v>210</v>
@@ -13664,8 +13648,8 @@
         <f t="shared" si="0"/>
         <v>ZON18</v>
       </c>
-      <c r="L18" s="53" t="s">
-        <v>437</v>
+      <c r="L18" s="52" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -13676,7 +13660,7 @@
         <v>243</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>264</v>
@@ -13685,7 +13669,7 @@
         <v>236</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G19" s="11" t="s">
         <v>210</v>
@@ -13703,8 +13687,8 @@
         <f t="shared" si="0"/>
         <v>ZON19</v>
       </c>
-      <c r="L19" s="53" t="s">
-        <v>438</v>
+      <c r="L19" s="52" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -13715,7 +13699,7 @@
         <v>243</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>264</v>
@@ -13724,7 +13708,7 @@
         <v>236</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G20" s="11" t="s">
         <v>210</v>
@@ -13742,8 +13726,8 @@
         <f>_xlfn.CONCAT("ZON",A20)</f>
         <v>ZON20</v>
       </c>
-      <c r="L20" s="53" t="s">
-        <v>439</v>
+      <c r="L20" s="52" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -13754,7 +13738,7 @@
         <v>243</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>265</v>
@@ -13763,7 +13747,7 @@
         <v>205</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G21" s="11" t="s">
         <v>210</v>
@@ -13781,8 +13765,8 @@
         <f>_xlfn.CONCAT("AMB",A21)</f>
         <v>AMB21</v>
       </c>
-      <c r="L21" s="53" t="s">
-        <v>440</v>
+      <c r="L21" s="52" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -13793,13 +13777,13 @@
         <v>243</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>265</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>273</v>
@@ -13820,8 +13804,8 @@
         <f t="shared" ref="K22:K48" si="1">_xlfn.CONCAT("AMB",A22)</f>
         <v>AMB22</v>
       </c>
-      <c r="L22" s="53" t="s">
-        <v>442</v>
+      <c r="L22" s="52" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -13832,13 +13816,13 @@
         <v>243</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>265</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>266</v>
@@ -13859,8 +13843,8 @@
         <f t="shared" si="1"/>
         <v>AMB23</v>
       </c>
-      <c r="L23" s="52" t="s">
-        <v>441</v>
+      <c r="L23" s="51" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -13871,13 +13855,13 @@
         <v>243</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>265</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>267</v>
@@ -13898,8 +13882,8 @@
         <f t="shared" si="1"/>
         <v>AMB24</v>
       </c>
-      <c r="L24" s="52" t="s">
-        <v>443</v>
+      <c r="L24" s="51" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -13910,13 +13894,13 @@
         <v>243</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>265</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>269</v>
@@ -13937,8 +13921,8 @@
         <f t="shared" si="1"/>
         <v>AMB25</v>
       </c>
-      <c r="L25" s="52" t="s">
-        <v>444</v>
+      <c r="L25" s="51" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -13949,13 +13933,13 @@
         <v>243</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>265</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>270</v>
@@ -13976,8 +13960,8 @@
         <f t="shared" si="1"/>
         <v>AMB26</v>
       </c>
-      <c r="L26" s="52" t="s">
-        <v>445</v>
+      <c r="L26" s="51" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -13988,13 +13972,13 @@
         <v>243</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>265</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>271</v>
@@ -14015,8 +13999,8 @@
         <f t="shared" si="1"/>
         <v>AMB27</v>
       </c>
-      <c r="L27" s="52" t="s">
-        <v>446</v>
+      <c r="L27" s="51" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -14027,13 +14011,13 @@
         <v>243</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>265</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>272</v>
@@ -14054,8 +14038,8 @@
         <f t="shared" si="1"/>
         <v>AMB28</v>
       </c>
-      <c r="L28" s="52" t="s">
-        <v>447</v>
+      <c r="L28" s="51" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -14066,13 +14050,13 @@
         <v>243</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>265</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>268</v>
@@ -14093,8 +14077,8 @@
         <f t="shared" si="1"/>
         <v>AMB29</v>
       </c>
-      <c r="L29" s="52" t="s">
-        <v>448</v>
+      <c r="L29" s="51" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -14105,13 +14089,13 @@
         <v>243</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>265</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>274</v>
@@ -14132,8 +14116,8 @@
         <f t="shared" si="1"/>
         <v>AMB30</v>
       </c>
-      <c r="L30" s="52" t="s">
-        <v>449</v>
+      <c r="L30" s="51" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -14144,13 +14128,13 @@
         <v>243</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>265</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>286</v>
@@ -14171,8 +14155,8 @@
         <f t="shared" si="1"/>
         <v>AMB31</v>
       </c>
-      <c r="L31" s="52" t="s">
-        <v>450</v>
+      <c r="L31" s="51" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -14183,13 +14167,13 @@
         <v>243</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>265</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>277</v>
@@ -14210,8 +14194,8 @@
         <f t="shared" si="1"/>
         <v>AMB32</v>
       </c>
-      <c r="L32" s="52" t="s">
-        <v>451</v>
+      <c r="L32" s="51" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -14222,13 +14206,13 @@
         <v>243</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>265</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>276</v>
@@ -14249,8 +14233,8 @@
         <f t="shared" si="1"/>
         <v>AMB33</v>
       </c>
-      <c r="L33" s="52" t="s">
-        <v>452</v>
+      <c r="L33" s="51" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -14261,13 +14245,13 @@
         <v>243</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>265</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>275</v>
@@ -14288,8 +14272,8 @@
         <f t="shared" si="1"/>
         <v>AMB34</v>
       </c>
-      <c r="L34" s="52" t="s">
-        <v>453</v>
+      <c r="L34" s="51" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -14300,16 +14284,16 @@
         <v>243</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>265</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G35" s="11" t="s">
         <v>210</v>
@@ -14327,8 +14311,8 @@
         <f t="shared" si="1"/>
         <v>AMB35</v>
       </c>
-      <c r="L35" s="52" t="s">
-        <v>454</v>
+      <c r="L35" s="51" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -14339,16 +14323,16 @@
         <v>243</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>265</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G36" s="11" t="s">
         <v>210</v>
@@ -14366,8 +14350,8 @@
         <f t="shared" si="1"/>
         <v>AMB36</v>
       </c>
-      <c r="L36" s="52" t="s">
-        <v>455</v>
+      <c r="L36" s="51" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -14378,16 +14362,16 @@
         <v>243</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>265</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G37" s="11" t="s">
         <v>210</v>
@@ -14405,8 +14389,8 @@
         <f t="shared" si="1"/>
         <v>AMB37</v>
       </c>
-      <c r="L37" s="52" t="s">
-        <v>456</v>
+      <c r="L37" s="51" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -14417,16 +14401,16 @@
         <v>243</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>265</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G38" s="11" t="s">
         <v>210</v>
@@ -14444,8 +14428,8 @@
         <f t="shared" si="1"/>
         <v>AMB38</v>
       </c>
-      <c r="L38" s="52" t="s">
-        <v>457</v>
+      <c r="L38" s="51" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -14456,13 +14440,13 @@
         <v>243</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>265</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>278</v>
@@ -14483,8 +14467,8 @@
         <f t="shared" si="1"/>
         <v>AMB39</v>
       </c>
-      <c r="L39" s="52" t="s">
-        <v>458</v>
+      <c r="L39" s="51" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -14495,13 +14479,13 @@
         <v>243</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>265</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>279</v>
@@ -14522,8 +14506,8 @@
         <f t="shared" si="1"/>
         <v>AMB40</v>
       </c>
-      <c r="L40" s="52" t="s">
-        <v>459</v>
+      <c r="L40" s="51" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -14534,7 +14518,7 @@
         <v>243</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>265</v>
@@ -14561,8 +14545,8 @@
         <f t="shared" si="1"/>
         <v>AMB41</v>
       </c>
-      <c r="L41" s="52" t="s">
-        <v>460</v>
+      <c r="L41" s="51" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -14573,7 +14557,7 @@
         <v>243</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>265</v>
@@ -14600,8 +14584,8 @@
         <f t="shared" si="1"/>
         <v>AMB42</v>
       </c>
-      <c r="L42" s="52" t="s">
-        <v>461</v>
+      <c r="L42" s="51" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -14612,7 +14596,7 @@
         <v>243</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>265</v>
@@ -14639,8 +14623,8 @@
         <f t="shared" si="1"/>
         <v>AMB43</v>
       </c>
-      <c r="L43" s="52" t="s">
-        <v>462</v>
+      <c r="L43" s="51" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -14651,7 +14635,7 @@
         <v>243</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>265</v>
@@ -14660,7 +14644,7 @@
         <v>282</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G44" s="11" t="s">
         <v>210</v>
@@ -14678,8 +14662,8 @@
         <f t="shared" si="1"/>
         <v>AMB44</v>
       </c>
-      <c r="L44" s="52" t="s">
-        <v>463</v>
+      <c r="L44" s="51" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -14690,7 +14674,7 @@
         <v>243</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>265</v>
@@ -14717,7 +14701,7 @@
         <f t="shared" ref="K45:K46" si="2">_xlfn.CONCAT("AMB",A45)</f>
         <v>AMB45</v>
       </c>
-      <c r="L45" s="52" t="s">
+      <c r="L45" s="51" t="s">
         <v>285</v>
       </c>
     </row>
@@ -14729,16 +14713,16 @@
         <v>243</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G46" s="11" t="s">
         <v>210</v>
@@ -14756,8 +14740,8 @@
         <f t="shared" si="2"/>
         <v>AMB46</v>
       </c>
-      <c r="L46" s="52" t="s">
-        <v>464</v>
+      <c r="L46" s="51" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -14768,16 +14752,16 @@
         <v>243</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G47" s="11" t="s">
         <v>210</v>
@@ -14795,8 +14779,8 @@
         <f t="shared" si="1"/>
         <v>AMB47</v>
       </c>
-      <c r="L47" s="52" t="s">
-        <v>465</v>
+      <c r="L47" s="51" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -14807,16 +14791,16 @@
         <v>243</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G48" s="11" t="s">
         <v>210</v>
@@ -14834,8 +14818,8 @@
         <f t="shared" si="1"/>
         <v>AMB48</v>
       </c>
-      <c r="L48" s="52" t="s">
-        <v>307</v>
+      <c r="L48" s="51" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -14846,16 +14830,16 @@
         <v>243</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G49" s="11" t="s">
         <v>210</v>
@@ -14873,8 +14857,8 @@
         <f t="shared" ref="K49" si="3">_xlfn.CONCAT("AMB",A49)</f>
         <v>AMB49</v>
       </c>
-      <c r="L49" s="52" t="s">
-        <v>304</v>
+      <c r="L49" s="51" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -14885,13 +14869,13 @@
         <v>243</v>
       </c>
       <c r="C50" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E50" s="3" t="s">
         <v>299</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>242</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>15</v>
@@ -14912,7 +14896,7 @@
         <f>_xlfn.CONCAT("BIM",A50)</f>
         <v>BIM50</v>
       </c>
-      <c r="L50" s="52" t="s">
+      <c r="L50" s="51" t="s">
         <v>15</v>
       </c>
     </row>
@@ -14924,13 +14908,13 @@
         <v>243</v>
       </c>
       <c r="C51" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E51" s="3" t="s">
         <v>299</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>242</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>153</v>
@@ -14951,7 +14935,7 @@
         <f t="shared" ref="K51:K56" si="4">_xlfn.CONCAT("BIM",A51)</f>
         <v>BIM51</v>
       </c>
-      <c r="L51" s="52" t="s">
+      <c r="L51" s="51" t="s">
         <v>153</v>
       </c>
     </row>
@@ -14963,13 +14947,13 @@
         <v>243</v>
       </c>
       <c r="C52" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E52" s="3" t="s">
         <v>299</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>242</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>155</v>
@@ -14990,7 +14974,7 @@
         <f t="shared" si="4"/>
         <v>BIM52</v>
       </c>
-      <c r="L52" s="52" t="s">
+      <c r="L52" s="51" t="s">
         <v>155</v>
       </c>
     </row>
@@ -15002,13 +14986,13 @@
         <v>243</v>
       </c>
       <c r="C53" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E53" s="3" t="s">
         <v>299</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>242</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>12</v>
@@ -15029,7 +15013,7 @@
         <f t="shared" si="4"/>
         <v>BIM53</v>
       </c>
-      <c r="L53" s="52" t="s">
+      <c r="L53" s="51" t="s">
         <v>12</v>
       </c>
     </row>
@@ -15041,13 +15025,13 @@
         <v>243</v>
       </c>
       <c r="C54" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="E54" s="3" t="s">
         <v>299</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>300</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>152</v>
@@ -15068,7 +15052,7 @@
         <f t="shared" si="4"/>
         <v>BIM54</v>
       </c>
-      <c r="L54" s="52" t="s">
+      <c r="L54" s="51" t="s">
         <v>152</v>
       </c>
     </row>
@@ -15080,13 +15064,13 @@
         <v>243</v>
       </c>
       <c r="C55" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="E55" s="3" t="s">
         <v>299</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>300</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>154</v>
@@ -15107,7 +15091,7 @@
         <f t="shared" si="4"/>
         <v>BIM55</v>
       </c>
-      <c r="L55" s="52" t="s">
+      <c r="L55" s="51" t="s">
         <v>154</v>
       </c>
     </row>
@@ -15119,34 +15103,34 @@
         <v>243</v>
       </c>
       <c r="C56" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="E56" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="D56" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="F56" s="48" t="s">
+      <c r="F56" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="G56" s="49" t="s">
-        <v>210</v>
-      </c>
-      <c r="H56" s="49" t="s">
-        <v>210</v>
-      </c>
-      <c r="I56" s="49" t="s">
-        <v>210</v>
-      </c>
-      <c r="J56" s="49" t="s">
+      <c r="G56" s="48" t="s">
+        <v>210</v>
+      </c>
+      <c r="H56" s="48" t="s">
+        <v>210</v>
+      </c>
+      <c r="I56" s="48" t="s">
+        <v>210</v>
+      </c>
+      <c r="J56" s="48" t="s">
         <v>210</v>
       </c>
       <c r="K56" s="11" t="str">
         <f t="shared" si="4"/>
         <v>BIM56</v>
       </c>
-      <c r="L56" s="55" t="s">
+      <c r="L56" s="54" t="s">
         <v>11</v>
       </c>
     </row>
@@ -15158,35 +15142,35 @@
         <v>243</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="E57" s="46" t="s">
-        <v>300</v>
-      </c>
-      <c r="F57" s="51" t="s">
-        <v>413</v>
-      </c>
-      <c r="G57" s="49" t="s">
-        <v>210</v>
-      </c>
-      <c r="H57" s="49" t="s">
-        <v>210</v>
-      </c>
-      <c r="I57" s="49" t="s">
-        <v>210</v>
-      </c>
-      <c r="J57" s="49" t="s">
-        <v>210</v>
-      </c>
-      <c r="K57" s="47" t="str">
+        <v>298</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="F57" s="50" t="s">
+        <v>411</v>
+      </c>
+      <c r="G57" s="48" t="s">
+        <v>210</v>
+      </c>
+      <c r="H57" s="48" t="s">
+        <v>210</v>
+      </c>
+      <c r="I57" s="48" t="s">
+        <v>210</v>
+      </c>
+      <c r="J57" s="48" t="s">
+        <v>210</v>
+      </c>
+      <c r="K57" s="46" t="str">
         <f t="shared" ref="K57:K62" si="5">_xlfn.CONCAT("BIM",A57)</f>
         <v>BIM57</v>
       </c>
-      <c r="L57" s="53" t="s">
-        <v>420</v>
+      <c r="L57" s="52" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -15197,35 +15181,35 @@
         <v>243</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D58" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="F58" s="50" t="s">
         <v>412</v>
       </c>
-      <c r="E58" s="46" t="s">
-        <v>300</v>
-      </c>
-      <c r="F58" s="51" t="s">
-        <v>414</v>
-      </c>
-      <c r="G58" s="49" t="s">
-        <v>210</v>
-      </c>
-      <c r="H58" s="49" t="s">
-        <v>210</v>
-      </c>
-      <c r="I58" s="49" t="s">
-        <v>210</v>
-      </c>
-      <c r="J58" s="49" t="s">
-        <v>210</v>
-      </c>
-      <c r="K58" s="47" t="str">
+      <c r="G58" s="48" t="s">
+        <v>210</v>
+      </c>
+      <c r="H58" s="48" t="s">
+        <v>210</v>
+      </c>
+      <c r="I58" s="48" t="s">
+        <v>210</v>
+      </c>
+      <c r="J58" s="48" t="s">
+        <v>210</v>
+      </c>
+      <c r="K58" s="46" t="str">
         <f t="shared" si="5"/>
         <v>BIM58</v>
       </c>
-      <c r="L58" s="53" t="s">
-        <v>415</v>
+      <c r="L58" s="52" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="11.45" customHeight="1" x14ac:dyDescent="0.15">
@@ -15236,35 +15220,35 @@
         <v>243</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="E59" s="46" t="s">
-        <v>300</v>
-      </c>
-      <c r="F59" s="51" t="s">
-        <v>409</v>
-      </c>
-      <c r="G59" s="49" t="s">
-        <v>210</v>
-      </c>
-      <c r="H59" s="49" t="s">
-        <v>210</v>
-      </c>
-      <c r="I59" s="49" t="s">
-        <v>210</v>
-      </c>
-      <c r="J59" s="49" t="s">
-        <v>210</v>
-      </c>
-      <c r="K59" s="47" t="str">
+        <v>298</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="F59" s="50" t="s">
+        <v>407</v>
+      </c>
+      <c r="G59" s="48" t="s">
+        <v>210</v>
+      </c>
+      <c r="H59" s="48" t="s">
+        <v>210</v>
+      </c>
+      <c r="I59" s="48" t="s">
+        <v>210</v>
+      </c>
+      <c r="J59" s="48" t="s">
+        <v>210</v>
+      </c>
+      <c r="K59" s="46" t="str">
         <f t="shared" si="5"/>
         <v>BIM59</v>
       </c>
-      <c r="L59" s="54" t="s">
-        <v>418</v>
+      <c r="L59" s="53" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="11.45" customHeight="1" x14ac:dyDescent="0.15">
@@ -15275,35 +15259,35 @@
         <v>243</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="E60" s="46" t="s">
-        <v>300</v>
-      </c>
-      <c r="F60" s="51" t="s">
+        <v>298</v>
+      </c>
+      <c r="E60" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="G60" s="49" t="s">
-        <v>210</v>
-      </c>
-      <c r="H60" s="49" t="s">
-        <v>210</v>
-      </c>
-      <c r="I60" s="49" t="s">
-        <v>210</v>
-      </c>
-      <c r="J60" s="49" t="s">
-        <v>210</v>
-      </c>
-      <c r="K60" s="47" t="str">
+      <c r="F60" s="50" t="s">
+        <v>408</v>
+      </c>
+      <c r="G60" s="48" t="s">
+        <v>210</v>
+      </c>
+      <c r="H60" s="48" t="s">
+        <v>210</v>
+      </c>
+      <c r="I60" s="48" t="s">
+        <v>210</v>
+      </c>
+      <c r="J60" s="48" t="s">
+        <v>210</v>
+      </c>
+      <c r="K60" s="46" t="str">
         <f t="shared" si="5"/>
         <v>BIM60</v>
       </c>
-      <c r="L60" s="54" t="s">
-        <v>416</v>
+      <c r="L60" s="53" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="11.45" customHeight="1" x14ac:dyDescent="0.15">
@@ -15314,35 +15298,35 @@
         <v>243</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="E61" s="46" t="s">
-        <v>300</v>
-      </c>
-      <c r="F61" s="51" t="s">
-        <v>411</v>
-      </c>
-      <c r="G61" s="49" t="s">
-        <v>210</v>
-      </c>
-      <c r="H61" s="49" t="s">
-        <v>210</v>
-      </c>
-      <c r="I61" s="49" t="s">
-        <v>210</v>
-      </c>
-      <c r="J61" s="49" t="s">
-        <v>210</v>
-      </c>
-      <c r="K61" s="47" t="str">
+        <v>298</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="F61" s="50" t="s">
+        <v>409</v>
+      </c>
+      <c r="G61" s="48" t="s">
+        <v>210</v>
+      </c>
+      <c r="H61" s="48" t="s">
+        <v>210</v>
+      </c>
+      <c r="I61" s="48" t="s">
+        <v>210</v>
+      </c>
+      <c r="J61" s="48" t="s">
+        <v>210</v>
+      </c>
+      <c r="K61" s="46" t="str">
         <f t="shared" si="5"/>
         <v>BIM61</v>
       </c>
-      <c r="L61" s="54" t="s">
-        <v>417</v>
+      <c r="L61" s="53" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="11.45" customHeight="1" x14ac:dyDescent="0.15">
@@ -15353,35 +15337,35 @@
         <v>243</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>412</v>
+        <v>298</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="F62" s="50" t="s">
+        <v>410</v>
+      </c>
+      <c r="F62" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="G62" s="49" t="s">
-        <v>210</v>
-      </c>
-      <c r="H62" s="49" t="s">
-        <v>210</v>
-      </c>
-      <c r="I62" s="49" t="s">
-        <v>210</v>
-      </c>
-      <c r="J62" s="49" t="s">
+      <c r="G62" s="48" t="s">
+        <v>210</v>
+      </c>
+      <c r="H62" s="48" t="s">
+        <v>210</v>
+      </c>
+      <c r="I62" s="48" t="s">
+        <v>210</v>
+      </c>
+      <c r="J62" s="48" t="s">
         <v>210</v>
       </c>
       <c r="K62" s="11" t="str">
         <f t="shared" si="5"/>
         <v>BIM62</v>
       </c>
-      <c r="L62" s="54" t="s">
-        <v>419</v>
+      <c r="L62" s="53" t="s">
+        <v>417</v>
       </c>
     </row>
   </sheetData>
@@ -15389,7 +15373,7 @@
     <sortCondition ref="E1:E55"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B56:C56 E56 A1:J1 B2:J49 A63:XFD1048576 B62:C62 E62 G56:J62 K59:K62 M59:XFD62 K1:XFD22 A2:A62 K57:XFD58 K23:K56 M23:XFD56 L23:L49">
+  <conditionalFormatting sqref="A1:J1 B2:J49 A63:XFD1048576 B62:C62 G56:J62 K59:K62 M59:XFD62 K1:XFD22 A2:A62 K57:XFD58 K23:K56 M23:XFD56 L23:L49 B56:D56 D57:D62">
     <cfRule type="containsText" dxfId="465" priority="408" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",A1)))</formula>
     </cfRule>
@@ -15403,7 +15387,7 @@
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G51:I51 B51:C51 E51">
+  <conditionalFormatting sqref="G51:I51 B51:D51">
     <cfRule type="containsText" dxfId="461" priority="70" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B51)))</formula>
     </cfRule>
@@ -15417,7 +15401,7 @@
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B52:C52 J50:J51 E52 G52:J52">
+  <conditionalFormatting sqref="J50:J51 G52:J52 B52:D52">
     <cfRule type="containsText" dxfId="457" priority="66" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B50)))</formula>
     </cfRule>
@@ -15431,7 +15415,7 @@
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G50:I50 B50:E50 D51:D62">
+  <conditionalFormatting sqref="G50:I50 B50:E50 E51:E62">
     <cfRule type="containsText" dxfId="453" priority="62" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B50)))</formula>
     </cfRule>
@@ -15445,7 +15429,7 @@
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B54:C54 E54 G54:J54">
+  <conditionalFormatting sqref="G54:J54 B54:D54">
     <cfRule type="containsText" dxfId="449" priority="58" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B54)))</formula>
     </cfRule>
@@ -15464,7 +15448,7 @@
       <formula>"Vnulo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B55:C55 E55 G55:J55">
+  <conditionalFormatting sqref="G55:J55 B55:D55">
     <cfRule type="containsText" dxfId="444" priority="52" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B55)))</formula>
     </cfRule>
@@ -15488,7 +15472,7 @@
       <formula>"Vnulo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B53:C53 E53">
+  <conditionalFormatting sqref="B53:D53">
     <cfRule type="containsText" dxfId="438" priority="44" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B53)))</formula>
     </cfRule>
@@ -15544,21 +15528,21 @@
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B60:C60 E57:E60">
+  <conditionalFormatting sqref="B60:C60">
     <cfRule type="containsText" dxfId="422" priority="19" operator="containsText" text="_">
-      <formula>NOT(ISERROR(SEARCH("_",B57)))</formula>
+      <formula>NOT(ISERROR(SEARCH("_",B60)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="421" priority="20" operator="containsText" text="Functional">
-      <formula>NOT(ISERROR(SEARCH("Functional",B57)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Functional",B60)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="420" priority="21" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
-      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B57)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B60)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="419" priority="22" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B61:C61 E61">
+  <conditionalFormatting sqref="B61:C61">
     <cfRule type="containsText" dxfId="418" priority="14" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B61)))</formula>
     </cfRule>
@@ -15617,7 +15601,7 @@
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:D2"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -15637,19 +15621,19 @@
         <v>1</v>
       </c>
       <c r="B1" s="41" t="s">
+        <v>399</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>400</v>
+      </c>
+      <c r="D1" s="41" t="s">
         <v>401</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="E1" s="41" t="s">
         <v>402</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="F1" s="41" t="s">
         <v>403</v>
-      </c>
-      <c r="E1" s="41" t="s">
-        <v>404</v>
-      </c>
-      <c r="F1" s="41" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -15663,7 +15647,7 @@
         <v>264</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>210</v>
@@ -15712,8 +15696,8 @@
   <dimension ref="A1:N606"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K20" sqref="K20:L22"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="10.9" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -15740,7 +15724,7 @@
         <v>227</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>224</v>
@@ -15824,10 +15808,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D3" s="19" t="str">
         <f>_xlfn.CONCAT("tem_",C3)</f>
@@ -15869,10 +15853,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D4" s="19" t="str">
         <f t="shared" ref="D4:D22" si="0">_xlfn.CONCAT("tem_",C4)</f>
@@ -15914,10 +15898,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D5" s="19" t="str">
         <f t="shared" si="0"/>
@@ -15959,10 +15943,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D6" s="19" t="str">
         <f t="shared" si="0"/>
@@ -16004,10 +15988,10 @@
         <v>7</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D7" s="19" t="str">
         <f t="shared" si="0"/>
@@ -16049,7 +16033,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>287</v>
@@ -16094,7 +16078,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>249</v>
@@ -16139,7 +16123,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>250</v>
@@ -16184,10 +16168,10 @@
         <v>11</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D11" s="19" t="str">
         <f t="shared" si="0"/>
@@ -16276,10 +16260,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D13" s="19" t="str">
         <f t="shared" si="0"/>
@@ -16313,7 +16297,7 @@
         <v>210</v>
       </c>
       <c r="N13" s="44" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="14" spans="1:14" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -16321,10 +16305,10 @@
         <v>14</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D14" s="19" t="str">
         <f t="shared" si="0"/>
@@ -16358,7 +16342,7 @@
         <v>210</v>
       </c>
       <c r="N14" s="44" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -16366,10 +16350,10 @@
         <v>15</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D15" s="19" t="str">
         <f t="shared" si="0"/>
@@ -16403,7 +16387,7 @@
         <v>210</v>
       </c>
       <c r="N15" s="44" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="16" spans="1:14" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -16411,10 +16395,10 @@
         <v>16</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D16" s="19" t="str">
         <f t="shared" si="0"/>
@@ -16448,7 +16432,7 @@
         <v>210</v>
       </c>
       <c r="N16" s="44" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="17" spans="1:14" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -16456,10 +16440,10 @@
         <v>17</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D17" s="19" t="str">
         <f t="shared" si="0"/>
@@ -16493,7 +16477,7 @@
         <v>210</v>
       </c>
       <c r="N17" s="44" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="18" spans="1:14" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -16501,10 +16485,10 @@
         <v>18</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D18" s="19" t="str">
         <f t="shared" si="0"/>
@@ -16538,7 +16522,7 @@
         <v>210</v>
       </c>
       <c r="N18" s="44" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="19" spans="1:14" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -16593,10 +16577,10 @@
         <v>20</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D20" s="19" t="str">
         <f t="shared" si="0"/>
@@ -16630,7 +16614,7 @@
         <v>210</v>
       </c>
       <c r="N20" s="44" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="21" spans="1:14" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -16638,10 +16622,10 @@
         <v>21</v>
       </c>
       <c r="B21" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="C21" s="20" t="s">
         <v>347</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>349</v>
       </c>
       <c r="D21" s="19" t="str">
         <f t="shared" si="0"/>
@@ -16675,7 +16659,7 @@
         <v>210</v>
       </c>
       <c r="N21" s="44" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="22" spans="1:14" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -16683,10 +16667,10 @@
         <v>22</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D22" s="19" t="str">
         <f t="shared" si="0"/>
@@ -16720,7 +16704,7 @@
         <v>210</v>
       </c>
       <c r="N22" s="44" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="23" spans="1:14" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -16775,10 +16759,10 @@
         <v>24</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D24" s="19" t="str">
         <f>_xlfn.CONCAT("ser_",C24)</f>
@@ -16813,7 +16797,7 @@
         <v>210</v>
       </c>
       <c r="N24" s="44" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="25" spans="1:14" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16821,10 +16805,10 @@
         <v>25</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D25" s="19" t="str">
         <f t="shared" ref="D25:D27" si="1">_xlfn.CONCAT("ser_",C25)</f>
@@ -16859,7 +16843,7 @@
         <v>210</v>
       </c>
       <c r="N25" s="44" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="26" spans="1:14" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16867,10 +16851,10 @@
         <v>26</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D26" s="19" t="str">
         <f t="shared" si="1"/>
@@ -16904,7 +16888,7 @@
         <v>210</v>
       </c>
       <c r="N26" s="44" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="27" spans="1:14" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16912,10 +16896,10 @@
         <v>27</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D27" s="19" t="str">
         <f t="shared" si="1"/>
@@ -16949,7 +16933,7 @@
         <v>210</v>
       </c>
       <c r="N27" s="44" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="10.9" customHeight="1" x14ac:dyDescent="0.15">
@@ -19891,16 +19875,16 @@
         <v>238</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D1" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>334</v>
+      </c>
+      <c r="F1" s="23" t="s">
         <v>327</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>336</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -19908,10 +19892,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D2" s="38" t="s">
         <v>245</v>
@@ -19920,7 +19904,7 @@
         <v>250</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -19928,10 +19912,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D3" s="38" t="s">
         <v>244</v>
@@ -19940,7 +19924,7 @@
         <v>249</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -19948,19 +19932,19 @@
         <v>4</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E4" s="39" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -19968,19 +19952,19 @@
         <v>5</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E5" s="39" t="s">
+        <v>329</v>
+      </c>
+      <c r="F5" s="20" t="s">
         <v>331</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -19988,19 +19972,19 @@
         <v>6</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -20008,19 +19992,19 @@
         <v>7</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -20028,19 +20012,19 @@
         <v>8</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -20048,19 +20032,19 @@
         <v>9</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E9" s="39" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -20068,19 +20052,19 @@
         <v>10</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E10" s="39" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -20088,19 +20072,19 @@
         <v>11</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D11" s="38" t="s">
+        <v>351</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>348</v>
+      </c>
+      <c r="F11" s="20" t="s">
         <v>353</v>
-      </c>
-      <c r="E11" s="39" t="s">
-        <v>350</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -21861,200 +21845,164 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFCDF1B5-C0A9-4071-9C68-EADAF0495E7B}">
-  <dimension ref="A1:O550"/>
+  <dimension ref="A1:I550"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.5703125" style="2" customWidth="1"/>
     <col min="2" max="2" width="10.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
     <col min="4" max="4" width="5.85546875" style="16" customWidth="1"/>
     <col min="5" max="5" width="3.28515625" style="16" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" style="28" customWidth="1"/>
     <col min="7" max="7" width="6.42578125" style="16" customWidth="1"/>
     <col min="8" max="8" width="7.42578125" style="16" customWidth="1"/>
     <col min="9" max="9" width="3.28515625" style="16" customWidth="1"/>
-    <col min="10" max="10" width="5.85546875" style="16" customWidth="1"/>
-    <col min="11" max="11" width="3.28515625" style="16" customWidth="1"/>
-    <col min="12" max="12" width="11.28515625" style="28" customWidth="1"/>
-    <col min="13" max="13" width="6.42578125" style="16" customWidth="1"/>
-    <col min="14" max="14" width="7.42578125" style="16" customWidth="1"/>
-    <col min="15" max="15" width="3.28515625" style="16" customWidth="1"/>
-    <col min="16" max="24" width="2.42578125" customWidth="1"/>
-    <col min="25" max="49" width="3.28515625" customWidth="1"/>
+    <col min="10" max="18" width="2.42578125" customWidth="1"/>
+    <col min="19" max="43" width="3.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>298</v>
+        <v>466</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G1" s="15" t="s">
         <v>211</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>289</v>
-      </c>
-      <c r="K1" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="L1" s="23" t="s">
-        <v>291</v>
-      </c>
-      <c r="M1" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="N1" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="O1" s="15" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="2" customFormat="1" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>2</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>288</v>
+        <v>465</v>
       </c>
       <c r="G2" s="27" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H2" s="27">
         <v>6</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>293</v>
-      </c>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-    </row>
-    <row r="3" spans="1:15" s="2" customFormat="1" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="2" customFormat="1" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>6</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>288</v>
+        <v>465</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H3" s="27">
         <v>3</v>
       </c>
       <c r="I3" s="26" t="s">
-        <v>293</v>
-      </c>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-    </row>
-    <row r="4" spans="1:15" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4"/>
       <c r="B4"/>
     </row>
-    <row r="5" spans="1:15" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5"/>
       <c r="B5"/>
     </row>
-    <row r="6" spans="1:15" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6"/>
       <c r="B6"/>
     </row>
-    <row r="7" spans="1:15" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7"/>
       <c r="B7"/>
     </row>
-    <row r="8" spans="1:15" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8"/>
       <c r="B8"/>
     </row>
-    <row r="9" spans="1:15" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9"/>
       <c r="B9"/>
     </row>
-    <row r="10" spans="1:15" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10"/>
       <c r="B10"/>
     </row>
-    <row r="11" spans="1:15" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11"/>
       <c r="B11"/>
     </row>
-    <row r="12" spans="1:15" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12"/>
       <c r="B12"/>
     </row>
-    <row r="13" spans="1:15" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13"/>
       <c r="B13"/>
     </row>
-    <row r="14" spans="1:15" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14"/>
       <c r="B14"/>
     </row>
-    <row r="15" spans="1:15" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="B15"/>
     </row>
-    <row r="16" spans="1:15" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="B16"/>
     </row>
@@ -24210,12 +24158,12 @@
       <formula>"ClaNula"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A551:B1048576 C1:O1">
+  <conditionalFormatting sqref="A551:B1048576 C1:I1">
     <cfRule type="containsText" dxfId="51" priority="88" operator="containsText" text="Prop_">
       <formula>NOT(ISERROR(SEARCH("Prop_",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD1 D2:K2 J3:K3 L2:O3 A2:C3">
+  <conditionalFormatting sqref="D2:I2 A2:C3 A1:XFD1 F3:G3">
     <cfRule type="containsText" dxfId="50" priority="84" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",A1)))</formula>
     </cfRule>
@@ -24229,7 +24177,7 @@
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:O1">
+  <conditionalFormatting sqref="C1:I1">
     <cfRule type="cellIs" dxfId="46" priority="82" operator="equal">
       <formula>"sem"</formula>
     </cfRule>
@@ -24237,26 +24185,26 @@
       <formula>NOT(ISERROR(SEARCH("ymmetric",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:O1">
+  <conditionalFormatting sqref="C1:I1">
     <cfRule type="containsText" dxfId="44" priority="81" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:XFD2">
+  <conditionalFormatting sqref="J2:XFD2">
     <cfRule type="containsText" dxfId="43" priority="77" operator="containsText" text="_">
-      <formula>NOT(ISERROR(SEARCH("_",P2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("_",J2)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="42" priority="78" operator="containsText" text="Functional">
-      <formula>NOT(ISERROR(SEARCH("Functional",P2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Functional",J2)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="41" priority="79" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
-      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",J2)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="40" priority="80" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:I3">
+  <conditionalFormatting sqref="D3:E3 H3:I3">
     <cfRule type="containsText" dxfId="39" priority="61" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D3)))</formula>
     </cfRule>
@@ -24270,15 +24218,15 @@
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P3:XFD3">
+  <conditionalFormatting sqref="J3:XFD3">
     <cfRule type="containsText" dxfId="35" priority="57" operator="containsText" text="_">
-      <formula>NOT(ISERROR(SEARCH("_",P3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("_",J3)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="34" priority="58" operator="containsText" text="Functional">
-      <formula>NOT(ISERROR(SEARCH("Functional",P3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Functional",J3)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="33" priority="59" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
-      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",J3)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="32" priority="60" operator="equal">
       <formula>"VNulo"</formula>
@@ -24307,16 +24255,16 @@
         <v>10</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>244</v>
@@ -24325,10 +24273,10 @@
         <v>212</v>
       </c>
       <c r="H1" s="27" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="I1" s="26" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J1" s="26"/>
       <c r="K1" s="26"/>
@@ -24342,16 +24290,16 @@
         <v>11</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F2" s="30" t="s">
         <v>245</v>
@@ -24360,10 +24308,10 @@
         <v>212</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J2" s="26"/>
       <c r="K2" s="26"/>
@@ -24377,16 +24325,16 @@
         <v>12</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F3" s="30" t="s">
         <v>244</v>
@@ -24395,10 +24343,10 @@
         <v>212</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="I3" s="26" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J3" s="26"/>
       <c r="K3" s="26"/>
@@ -24412,16 +24360,16 @@
         <v>13</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F4" s="30" t="s">
         <v>245</v>
@@ -24430,10 +24378,10 @@
         <v>212</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="I4" s="26" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J4" s="26"/>
       <c r="K4" s="26"/>
@@ -24444,37 +24392,37 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="11" spans="1:15" s="33" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="12" spans="1:15" s="33" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="189.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="34" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="231" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="34" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="359.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="34" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="216" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="34" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>

--- a/Ontologia_ambientes.xlsx
+++ b/Ontologia_ambientes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JLMenegotto\Projetos\OntoBIM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4748D179-C703-4A58-90EC-FAB976565848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05512A49-F988-479A-8634-344E24B23078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="5" xr2:uid="{54713FF2-A43C-4A02-94D3-353C9CB17DF5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{54713FF2-A43C-4A02-94D3-353C9CB17DF5}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjInfo" sheetId="6" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3264" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3292" uniqueCount="530">
   <si>
     <t>IfcPolyline</t>
   </si>
@@ -1605,6 +1605,90 @@
   </si>
   <si>
     <t>ser_articulado</t>
+  </si>
+  <si>
+    <t>Dados de Identidade dos elementos</t>
+  </si>
+  <si>
+    <t>Anotações de ajuda</t>
+  </si>
+  <si>
+    <t>Valor do ID único extraído do modelo Revit</t>
+  </si>
+  <si>
+    <t>Valor da categoria IFC correspondente ao elemento</t>
+  </si>
+  <si>
+    <t>Valor da categoria OST Revit do elemento</t>
+  </si>
+  <si>
+    <t>Valor do Layer do elemento</t>
+  </si>
+  <si>
+    <t>Nome do Ambiente</t>
+  </si>
+  <si>
+    <t>Código do Ambiente</t>
+  </si>
+  <si>
+    <t>Número do Ambiente</t>
+  </si>
+  <si>
+    <t>Largura mínima do ambiente</t>
+  </si>
+  <si>
+    <t>Profundidade mínima do ambiente</t>
+  </si>
+  <si>
+    <t>Pédireito mínimo do ambiente</t>
+  </si>
+  <si>
+    <t>Largura adotada para o ambiente</t>
+  </si>
+  <si>
+    <t>Pédireito adotado para o ambiente</t>
+  </si>
+  <si>
+    <t>O ambiente é subordinado à articulação de outro ambiente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Código do Bloco A, B, C... </t>
+  </si>
+  <si>
+    <t>Código da Unidade POLI, COPPE, etc</t>
+  </si>
+  <si>
+    <t>Longitude - coordenada X</t>
+  </si>
+  <si>
+    <t>Latitude -  coordenada Y</t>
+  </si>
+  <si>
+    <t>Altitude - coordenada Z</t>
+  </si>
+  <si>
+    <t>Dados de requisitos solicitados para o projeto</t>
+  </si>
+  <si>
+    <t>Dados com os valores adotados no projeto</t>
+  </si>
+  <si>
+    <t>Profundidade adotada para o ambiente</t>
+  </si>
+  <si>
+    <t>Dados para Geolocalização dos elementos</t>
+  </si>
+  <si>
+    <t>Articulação espaço funcional dos ambientes 1 = true,  0 = false</t>
+  </si>
+  <si>
+    <t>O ambiente é articulador espacial de outros ambientes</t>
+  </si>
+  <si>
+    <t>O ambiente está conectado a outro ambiente</t>
+  </si>
+  <si>
+    <t>O ambiente é adjacente a outro ambiente</t>
   </si>
 </sst>
 </file>
@@ -2018,7 +2102,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="488">
+  <dxfs count="492">
     <dxf>
       <font>
         <b val="0"/>
@@ -2375,6 +2459,27 @@
       <font>
         <b val="0"/>
         <i/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -2407,6 +2512,13 @@
       <font>
         <b val="0"/>
         <i/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -2471,27 +2583,6 @@
       <font>
         <b val="0"/>
         <i/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color rgb="FFFFFF00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -2524,13 +2615,6 @@
       <font>
         <b val="0"/>
         <i/>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -2659,6 +2743,27 @@
       <font>
         <b val="0"/>
         <i/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -2691,6 +2796,14 @@
       <font>
         <b val="0"/>
         <i/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
         <color theme="0"/>
       </font>
     </dxf>
@@ -2698,21 +2811,24 @@
       <font>
         <b val="0"/>
         <i/>
+        <strike val="0"/>
+        <color theme="2" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
         <color theme="0"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i/>
-        <color rgb="FFFFFF00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="1" tint="0.499984740745262"/>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color auto="1"/>
       </font>
     </dxf>
     <dxf>
@@ -13148,21 +13264,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A179 A1:L1">
-    <cfRule type="containsText" dxfId="487" priority="2" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="491" priority="2" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="486" priority="3" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="490" priority="3" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="485" priority="4" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="489" priority="4" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",A1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="484" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="488" priority="5" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93:B179 A2:A92 C2:L179 A1:L1">
-    <cfRule type="cellIs" dxfId="483" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="487" priority="1" operator="equal">
       <formula>"Vnulo"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13174,9 +13290,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C443A3DD-080C-431B-94F2-F6282C8E2BED}">
   <dimension ref="A1:O62"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M48" sqref="M48"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="10.8" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -16180,219 +16296,219 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:J1 B2:J49 B62:C62 G56:J62 P59:XFD62 A2:A62 K1:K62 P23:XFD56 O23:O49 B56:D56 D57:D62 O1:XFD22 A63:XFD1048576 O57:XFD58 L1:N49">
-    <cfRule type="containsText" dxfId="482" priority="412" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="486" priority="412" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="481" priority="413" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="485" priority="413" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="480" priority="414" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="484" priority="414" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",A1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="479" priority="415" operator="equal">
+    <cfRule type="cellIs" dxfId="483" priority="415" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G51:I51 B51:D51">
-    <cfRule type="containsText" dxfId="478" priority="74" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="482" priority="74" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="477" priority="75" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="481" priority="75" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="476" priority="76" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="480" priority="76" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B51)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="475" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="479" priority="77" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J50:J51 G52:J52 B52:D52">
-    <cfRule type="containsText" dxfId="474" priority="70" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="478" priority="70" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="473" priority="71" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="477" priority="71" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="472" priority="72" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="476" priority="72" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B50)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="471" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="475" priority="73" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50:I50 B50:E50 E51:E62">
-    <cfRule type="containsText" dxfId="470" priority="66" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="474" priority="66" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="469" priority="67" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="473" priority="67" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="468" priority="68" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="472" priority="68" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B50)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="467" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="471" priority="69" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G54:J54 B54:D54">
-    <cfRule type="containsText" dxfId="466" priority="62" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="470" priority="62" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="465" priority="63" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="469" priority="63" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="464" priority="64" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="468" priority="64" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B54)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="463" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="467" priority="65" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="cellIs" dxfId="462" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="466" priority="61" operator="equal">
       <formula>"Vnulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G55:J55 B55:D55">
-    <cfRule type="containsText" dxfId="461" priority="56" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="465" priority="56" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="460" priority="57" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="464" priority="57" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="459" priority="58" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="463" priority="58" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B55)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="458" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="462" priority="59" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="cellIs" dxfId="457" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="461" priority="55" operator="equal">
       <formula>"Vnulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="cellIs" dxfId="456" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="460" priority="53" operator="equal">
       <formula>"Vnulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53:D53">
-    <cfRule type="containsText" dxfId="455" priority="48" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="459" priority="48" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="454" priority="49" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="458" priority="49" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="453" priority="50" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="457" priority="50" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B53)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="452" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="456" priority="51" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G53:J53">
-    <cfRule type="containsText" dxfId="451" priority="44" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="455" priority="44" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",G53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="450" priority="45" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="454" priority="45" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",G53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="449" priority="46" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="453" priority="46" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",G53)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="448" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="452" priority="47" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57:C57">
-    <cfRule type="containsText" dxfId="447" priority="31" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="451" priority="31" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="446" priority="32" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="450" priority="32" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="445" priority="33" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="449" priority="33" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B57)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="444" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="448" priority="34" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58:C58">
-    <cfRule type="containsText" dxfId="443" priority="27" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="447" priority="27" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="442" priority="28" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="446" priority="28" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="441" priority="29" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="445" priority="29" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B58)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="440" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="444" priority="30" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60:C60">
-    <cfRule type="containsText" dxfId="439" priority="23" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="443" priority="23" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B60)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="438" priority="24" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="442" priority="24" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B60)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="437" priority="25" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="441" priority="25" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B60)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="436" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="440" priority="26" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61:C61">
-    <cfRule type="containsText" dxfId="435" priority="18" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="439" priority="18" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B61)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="434" priority="19" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="438" priority="19" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B61)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="433" priority="20" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="437" priority="20" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B61)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="432" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="436" priority="21" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62">
-    <cfRule type="cellIs" dxfId="431" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="435" priority="16" operator="equal">
       <formula>"Vnulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59:C59">
-    <cfRule type="containsText" dxfId="430" priority="12" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="434" priority="12" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B59)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="429" priority="13" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="433" priority="13" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B59)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="428" priority="14" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="432" priority="14" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B59)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="427" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="431" priority="15" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O54">
-    <cfRule type="cellIs" dxfId="426" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="430" priority="7" operator="equal">
       <formula>"Vnulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O55">
-    <cfRule type="cellIs" dxfId="425" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="429" priority="6" operator="equal">
       <formula>"Vnulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O56">
-    <cfRule type="cellIs" dxfId="424" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="428" priority="5" operator="equal">
       <formula>"Vnulo"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16407,7 +16523,7 @@
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="11.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -16465,30 +16581,30 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G2:XFD2 A1:XFD1 A2:D2 A3:XFD1048576">
-    <cfRule type="containsText" dxfId="423" priority="60" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="427" priority="60" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="422" priority="61" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="426" priority="61" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="421" priority="62" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="425" priority="62" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",A1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="420" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="424" priority="63" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:F2">
-    <cfRule type="containsText" dxfId="419" priority="9" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="423" priority="9" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="418" priority="10" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="422" priority="10" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="417" priority="11" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="421" priority="11" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",E2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="416" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="420" priority="12" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16499,11 +16615,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62272EF8-F168-46E8-B331-113C6804F082}">
-  <dimension ref="A1:N607"/>
+  <dimension ref="A1:O607"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="8.4" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -16512,14 +16628,16 @@
     <col min="2" max="2" width="7.5546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="8.109375" style="22" customWidth="1"/>
     <col min="4" max="4" width="12.44140625" style="22" customWidth="1"/>
-    <col min="5" max="7" width="7" style="22" customWidth="1"/>
+    <col min="5" max="7" width="5.88671875" style="22" customWidth="1"/>
     <col min="8" max="8" width="8.109375" style="22" customWidth="1"/>
-    <col min="9" max="13" width="7" style="22" customWidth="1"/>
+    <col min="9" max="9" width="7" style="22" customWidth="1"/>
+    <col min="10" max="13" width="5.77734375" style="22" customWidth="1"/>
     <col min="14" max="14" width="8.5546875" style="45" customWidth="1"/>
-    <col min="15" max="16384" width="9.109375" style="22"/>
+    <col min="15" max="15" width="33.88671875" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="9.109375" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="2" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4">
         <v>1</v>
       </c>
@@ -16562,8 +16680,11 @@
       <c r="N1" s="15" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" s="2" customFormat="1" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O1" s="41" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="2" customFormat="1" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>2</v>
       </c>
@@ -16608,8 +16729,11 @@
       <c r="N2" s="43" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" s="2" customFormat="1" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O2" s="52" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="2" customFormat="1" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>3</v>
       </c>
@@ -16653,8 +16777,11 @@
       <c r="N3" s="44" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" s="2" customFormat="1" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O3" s="52" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="2" customFormat="1" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>4</v>
       </c>
@@ -16698,8 +16825,11 @@
       <c r="N4" s="44" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" s="2" customFormat="1" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O4" s="52" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="2" customFormat="1" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>5</v>
       </c>
@@ -16743,8 +16873,11 @@
       <c r="N5" s="44" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" s="2" customFormat="1" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O5" s="52" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="2" customFormat="1" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>6</v>
       </c>
@@ -16788,8 +16921,11 @@
       <c r="N6" s="44" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" s="2" customFormat="1" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O6" s="52" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="2" customFormat="1" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>7</v>
       </c>
@@ -16833,8 +16969,11 @@
       <c r="N7" s="44" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" s="2" customFormat="1" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O7" s="52" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="2" customFormat="1" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>8</v>
       </c>
@@ -16878,8 +17017,11 @@
       <c r="N8" s="44" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" s="2" customFormat="1" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O8" s="52" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="2" customFormat="1" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>9</v>
       </c>
@@ -16923,8 +17065,11 @@
       <c r="N9" s="44" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" s="2" customFormat="1" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O9" s="52" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="2" customFormat="1" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>10</v>
       </c>
@@ -16968,8 +17113,11 @@
       <c r="N10" s="44" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" s="2" customFormat="1" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O10" s="52" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="2" customFormat="1" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>11</v>
       </c>
@@ -17013,8 +17161,11 @@
       <c r="N11" s="44" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" s="2" customFormat="1" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O11" s="52" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="2" customFormat="1" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>12</v>
       </c>
@@ -17060,8 +17211,11 @@
       <c r="N12" s="43" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" s="2" customFormat="1" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O12" s="52" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="2" customFormat="1" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>13</v>
       </c>
@@ -17105,8 +17259,11 @@
       <c r="N13" s="44" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" s="2" customFormat="1" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O13" s="52" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="2" customFormat="1" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>14</v>
       </c>
@@ -17150,8 +17307,11 @@
       <c r="N14" s="44" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" s="2" customFormat="1" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O14" s="52" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="2" customFormat="1" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>15</v>
       </c>
@@ -17195,8 +17355,11 @@
       <c r="N15" s="44" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" s="2" customFormat="1" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O15" s="52" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="2" customFormat="1" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>16</v>
       </c>
@@ -17242,8 +17405,11 @@
       <c r="N16" s="43" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" s="2" customFormat="1" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O16" s="52" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="2" customFormat="1" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>17</v>
       </c>
@@ -17287,8 +17453,11 @@
       <c r="N17" s="44" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" s="2" customFormat="1" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O17" s="52" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="2" customFormat="1" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>18</v>
       </c>
@@ -17332,8 +17501,11 @@
       <c r="N18" s="44" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" s="2" customFormat="1" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O18" s="52" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="2" customFormat="1" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>19</v>
       </c>
@@ -17377,8 +17549,11 @@
       <c r="N19" s="44" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" s="2" customFormat="1" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O19" s="52" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" s="2" customFormat="1" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>20</v>
       </c>
@@ -17424,8 +17599,11 @@
       <c r="N20" s="43" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" s="2" customFormat="1" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O20" s="52" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="2" customFormat="1" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>21</v>
       </c>
@@ -17469,8 +17647,11 @@
       <c r="N21" s="44" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" s="2" customFormat="1" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O21" s="52" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="2" customFormat="1" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>22</v>
       </c>
@@ -17514,8 +17695,11 @@
       <c r="N22" s="44" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" s="2" customFormat="1" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O22" s="52" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="2" customFormat="1" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>23</v>
       </c>
@@ -17559,8 +17743,11 @@
       <c r="N23" s="44" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" s="2" customFormat="1" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O23" s="52" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="2" customFormat="1" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>24</v>
       </c>
@@ -17606,8 +17793,11 @@
       <c r="N24" s="43" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" s="2" customFormat="1" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O24" s="52" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="2" customFormat="1" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>25</v>
       </c>
@@ -17652,8 +17842,11 @@
       <c r="N25" s="44" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" s="2" customFormat="1" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O25" s="52" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="2" customFormat="1" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>26</v>
       </c>
@@ -17698,8 +17891,11 @@
       <c r="N26" s="44" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" s="2" customFormat="1" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O26" s="52" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="2" customFormat="1" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>27</v>
       </c>
@@ -17743,8 +17939,11 @@
       <c r="N27" s="44" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" s="2" customFormat="1" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O27" s="52" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" s="2" customFormat="1" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>28</v>
       </c>
@@ -17788,150 +17987,189 @@
       <c r="N28" s="44" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" ht="8.4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O28" s="52" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="22"/>
       <c r="B29" s="22"/>
-    </row>
-    <row r="30" spans="1:14" ht="8.4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O29" s="45"/>
+    </row>
+    <row r="30" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="22"/>
       <c r="B30" s="22"/>
-    </row>
-    <row r="31" spans="1:14" ht="8.4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O30" s="45"/>
+    </row>
+    <row r="31" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="22"/>
       <c r="B31" s="22"/>
-    </row>
-    <row r="32" spans="1:14" ht="8.4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O31" s="45"/>
+    </row>
+    <row r="32" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="22"/>
       <c r="B32" s="22"/>
-    </row>
-    <row r="33" spans="1:2" ht="8.4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O32" s="45"/>
+    </row>
+    <row r="33" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="22"/>
       <c r="B33" s="22"/>
-    </row>
-    <row r="34" spans="1:2" ht="8.4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O33" s="45"/>
+    </row>
+    <row r="34" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="22"/>
       <c r="B34" s="22"/>
-    </row>
-    <row r="35" spans="1:2" ht="8.4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O34" s="45"/>
+    </row>
+    <row r="35" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="22"/>
       <c r="B35" s="22"/>
-    </row>
-    <row r="36" spans="1:2" ht="8.4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O35" s="45"/>
+    </row>
+    <row r="36" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="22"/>
       <c r="B36" s="22"/>
-    </row>
-    <row r="37" spans="1:2" ht="8.4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O36" s="45"/>
+    </row>
+    <row r="37" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="22"/>
       <c r="B37" s="22"/>
-    </row>
-    <row r="38" spans="1:2" ht="8.4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O37" s="45"/>
+    </row>
+    <row r="38" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="22"/>
       <c r="B38" s="22"/>
-    </row>
-    <row r="39" spans="1:2" ht="8.4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O38" s="45"/>
+    </row>
+    <row r="39" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="22"/>
       <c r="B39" s="22"/>
-    </row>
-    <row r="40" spans="1:2" ht="8.4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O39" s="45"/>
+    </row>
+    <row r="40" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="22"/>
       <c r="B40" s="22"/>
-    </row>
-    <row r="41" spans="1:2" ht="8.4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O40" s="45"/>
+    </row>
+    <row r="41" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="22"/>
       <c r="B41" s="22"/>
-    </row>
-    <row r="42" spans="1:2" ht="8.4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O41" s="45"/>
+    </row>
+    <row r="42" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="22"/>
       <c r="B42" s="22"/>
-    </row>
-    <row r="43" spans="1:2" ht="8.4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O42" s="45"/>
+    </row>
+    <row r="43" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="22"/>
       <c r="B43" s="22"/>
-    </row>
-    <row r="44" spans="1:2" ht="8.4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O43" s="45"/>
+    </row>
+    <row r="44" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="22"/>
       <c r="B44" s="22"/>
-    </row>
-    <row r="45" spans="1:2" ht="8.4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O44" s="45"/>
+    </row>
+    <row r="45" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="22"/>
       <c r="B45" s="22"/>
-    </row>
-    <row r="46" spans="1:2" ht="8.4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O45" s="45"/>
+    </row>
+    <row r="46" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="22"/>
       <c r="B46" s="22"/>
-    </row>
-    <row r="47" spans="1:2" ht="8.4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O46" s="45"/>
+    </row>
+    <row r="47" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="22"/>
       <c r="B47" s="22"/>
-    </row>
-    <row r="48" spans="1:2" ht="8.4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O47" s="45"/>
+    </row>
+    <row r="48" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="22"/>
       <c r="B48" s="22"/>
-    </row>
-    <row r="49" spans="1:2" ht="8.4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O48" s="45"/>
+    </row>
+    <row r="49" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="22"/>
       <c r="B49" s="22"/>
-    </row>
-    <row r="50" spans="1:2" ht="8.4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O49" s="45"/>
+    </row>
+    <row r="50" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="22"/>
       <c r="B50" s="22"/>
-    </row>
-    <row r="51" spans="1:2" ht="8.4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O50" s="45"/>
+    </row>
+    <row r="51" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="22"/>
       <c r="B51" s="22"/>
-    </row>
-    <row r="52" spans="1:2" ht="8.4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O51" s="45"/>
+    </row>
+    <row r="52" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="22"/>
       <c r="B52" s="22"/>
-    </row>
-    <row r="53" spans="1:2" ht="8.4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O52" s="45"/>
+    </row>
+    <row r="53" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="22"/>
       <c r="B53" s="22"/>
-    </row>
-    <row r="54" spans="1:2" ht="8.4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O53" s="45"/>
+    </row>
+    <row r="54" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="22"/>
       <c r="B54" s="22"/>
-    </row>
-    <row r="55" spans="1:2" ht="8.4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O54" s="45"/>
+    </row>
+    <row r="55" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="22"/>
       <c r="B55" s="22"/>
-    </row>
-    <row r="56" spans="1:2" ht="8.4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O55" s="45"/>
+    </row>
+    <row r="56" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="22"/>
       <c r="B56" s="22"/>
-    </row>
-    <row r="57" spans="1:2" ht="8.4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O56" s="45"/>
+    </row>
+    <row r="57" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="22"/>
       <c r="B57" s="22"/>
-    </row>
-    <row r="58" spans="1:2" ht="8.4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O57" s="45"/>
+    </row>
+    <row r="58" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="22"/>
       <c r="B58" s="22"/>
-    </row>
-    <row r="59" spans="1:2" ht="8.4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O58" s="45"/>
+    </row>
+    <row r="59" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="22"/>
       <c r="B59" s="22"/>
-    </row>
-    <row r="60" spans="1:2" ht="8.4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O59" s="45"/>
+    </row>
+    <row r="60" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="22"/>
       <c r="B60" s="22"/>
-    </row>
-    <row r="61" spans="1:2" ht="8.4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O60" s="45"/>
+    </row>
+    <row r="61" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="22"/>
       <c r="B61" s="22"/>
-    </row>
-    <row r="62" spans="1:2" ht="8.4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O61" s="45"/>
+    </row>
+    <row r="62" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="22"/>
       <c r="B62" s="22"/>
-    </row>
-    <row r="63" spans="1:2" ht="8.4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O62" s="45"/>
+    </row>
+    <row r="63" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="22"/>
       <c r="B63" s="22"/>
-    </row>
-    <row r="64" spans="1:2" ht="8.4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O63" s="45"/>
+    </row>
+    <row r="64" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="22"/>
       <c r="B64" s="22"/>
+      <c r="O64" s="45"/>
     </row>
     <row r="65" spans="1:2" ht="8.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="22"/>
@@ -20108,142 +20346,156 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A608:B1048576">
-    <cfRule type="containsText" dxfId="415" priority="1165" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="419" priority="1169" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",A608)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="414" priority="1166" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="418" priority="1170" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",A608)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="413" priority="1167" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="417" priority="1171" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",A608)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="412" priority="1168" operator="equal">
+    <cfRule type="cellIs" dxfId="416" priority="1172" operator="equal">
       <formula>"ClaNula"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A608:B1048576 D1:M1 C17:C18 N1:N19 C14">
-    <cfRule type="containsText" dxfId="411" priority="1164" operator="containsText" text="Prop_">
+    <cfRule type="containsText" dxfId="415" priority="1168" operator="containsText" text="Prop_">
       <formula>NOT(ISERROR(SEARCH("Prop_",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2 G2:H12 O1:XFD2 A1:B1 F25:G28 D1:H1 C1:C2 C12:C13 G24:I24 I12:M12 I1:M2 I20:M20 J7:K11 L3:M11 J21:M28 G16:M16 B17:H19 J17:M19 O17:XFD18 C15:C20 J13:M15 O13:XFD15 N1:N19 B13:H15 A2:A28">
-    <cfRule type="containsText" dxfId="410" priority="1160" operator="containsText" text="_">
+  <conditionalFormatting sqref="B2 G2:H12 P1:XFD2 A1:B1 F25:G28 D1:H1 C1:C2 C12:C13 G24:I24 I12:M12 I1:M2 I20:M20 J7:K11 L3:M11 J21:M28 G16:M16 B17:H19 J17:M19 P17:XFD18 C15:C20 J13:M15 P13:XFD15 N1:N19 B13:H15 A2:A28">
+    <cfRule type="containsText" dxfId="414" priority="1164" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="409" priority="1161" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="413" priority="1165" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="408" priority="1162" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="412" priority="1166" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",A1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="407" priority="1163" operator="equal">
+    <cfRule type="cellIs" dxfId="411" priority="1167" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:M1 C17:C18 N1:N19 C14">
-    <cfRule type="cellIs" dxfId="406" priority="1158" operator="equal">
+    <cfRule type="cellIs" dxfId="410" priority="1162" operator="equal">
       <formula>"sem"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="405" priority="1159" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="409" priority="1163" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:M1 C17:C18 N1:N19 C14">
-    <cfRule type="containsText" dxfId="404" priority="1157" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="408" priority="1161" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F11 D2:F2">
-    <cfRule type="containsText" dxfId="403" priority="1148" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="407" priority="1152" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="402" priority="1149" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="406" priority="1153" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="401" priority="1150" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="405" priority="1154" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="400" priority="1151" operator="equal">
+    <cfRule type="cellIs" dxfId="404" priority="1155" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B11">
-    <cfRule type="containsText" dxfId="399" priority="1126" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="403" priority="1130" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O7:XFD11 B7:B11 E7:E11">
-    <cfRule type="containsText" dxfId="398" priority="1106" operator="containsText" text="_">
+  <conditionalFormatting sqref="P7:XFD11 B7:B11 E7:E11">
+    <cfRule type="containsText" dxfId="402" priority="1110" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="397" priority="1107" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="401" priority="1111" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="396" priority="1108" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="400" priority="1112" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B7)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="395" priority="1109" operator="equal">
+    <cfRule type="cellIs" dxfId="399" priority="1113" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O12:XFD12">
+  <conditionalFormatting sqref="P12:XFD12">
+    <cfRule type="containsText" dxfId="398" priority="1066" operator="containsText" text="_">
+      <formula>NOT(ISERROR(SEARCH("_",P12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="397" priority="1067" operator="containsText" text="Functional">
+      <formula>NOT(ISERROR(SEARCH("Functional",P12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="396" priority="1068" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P12)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="395" priority="1069" operator="equal">
+      <formula>"VNulo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12:F12">
     <cfRule type="containsText" dxfId="394" priority="1062" operator="containsText" text="_">
-      <formula>NOT(ISERROR(SEARCH("_",O12)))</formula>
+      <formula>NOT(ISERROR(SEARCH("_",E12)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="393" priority="1063" operator="containsText" text="Functional">
-      <formula>NOT(ISERROR(SEARCH("Functional",O12)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Functional",E12)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="392" priority="1064" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
-      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",O12)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",E12)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="391" priority="1065" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:F12">
-    <cfRule type="containsText" dxfId="390" priority="1058" operator="containsText" text="_">
-      <formula>NOT(ISERROR(SEARCH("_",E12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="389" priority="1059" operator="containsText" text="Functional">
-      <formula>NOT(ISERROR(SEARCH("Functional",E12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="388" priority="1060" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
-      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",E12)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="387" priority="1061" operator="equal">
-      <formula>"VNulo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O23:XFD25">
-    <cfRule type="containsText" dxfId="386" priority="1050" operator="containsText" text="_">
-      <formula>NOT(ISERROR(SEARCH("_",O23)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="385" priority="1051" operator="containsText" text="Functional">
-      <formula>NOT(ISERROR(SEARCH("Functional",O23)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="384" priority="1052" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
-      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",O23)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="383" priority="1053" operator="equal">
+  <conditionalFormatting sqref="P23:XFD25">
+    <cfRule type="containsText" dxfId="390" priority="1054" operator="containsText" text="_">
+      <formula>NOT(ISERROR(SEARCH("_",P23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="389" priority="1055" operator="containsText" text="Functional">
+      <formula>NOT(ISERROR(SEARCH("Functional",P23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="388" priority="1056" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P23)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="387" priority="1057" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="containsText" dxfId="382" priority="926" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="386" priority="930" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",B12)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B12 B16 O19:XFD19">
-    <cfRule type="containsText" dxfId="381" priority="922" operator="containsText" text="_">
+  <conditionalFormatting sqref="B12 B16 P19:XFD19">
+    <cfRule type="containsText" dxfId="385" priority="926" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="380" priority="923" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="384" priority="927" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="379" priority="924" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="383" priority="928" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B12)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="378" priority="925" operator="equal">
+    <cfRule type="cellIs" dxfId="382" priority="929" operator="equal">
+      <formula>"VNulo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12">
+    <cfRule type="containsText" dxfId="381" priority="921" operator="containsText" text="_">
+      <formula>NOT(ISERROR(SEARCH("_",B12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="380" priority="922" operator="containsText" text="Functional">
+      <formula>NOT(ISERROR(SEARCH("Functional",B12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="379" priority="923" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B12)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="378" priority="924" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20261,910 +20513,910 @@
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B12">
-    <cfRule type="containsText" dxfId="373" priority="913" operator="containsText" text="_">
-      <formula>NOT(ISERROR(SEARCH("_",B12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="372" priority="914" operator="containsText" text="Functional">
-      <formula>NOT(ISERROR(SEARCH("Functional",B12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="371" priority="915" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
-      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B12)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="370" priority="916" operator="equal">
+  <conditionalFormatting sqref="B6:B11 P6:XFD6">
+    <cfRule type="containsText" dxfId="373" priority="893" operator="containsText" text="_">
+      <formula>NOT(ISERROR(SEARCH("_",B6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="372" priority="894" operator="containsText" text="Functional">
+      <formula>NOT(ISERROR(SEARCH("Functional",B6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="371" priority="895" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B6)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="370" priority="896" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6:B11 O6:XFD6">
+  <conditionalFormatting sqref="J3:K6">
     <cfRule type="containsText" dxfId="369" priority="889" operator="containsText" text="_">
-      <formula>NOT(ISERROR(SEARCH("_",B6)))</formula>
+      <formula>NOT(ISERROR(SEARCH("_",J3)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="368" priority="890" operator="containsText" text="Functional">
-      <formula>NOT(ISERROR(SEARCH("Functional",B6)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Functional",J3)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="367" priority="891" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
-      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B6)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",J3)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="366" priority="892" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:K6">
+  <conditionalFormatting sqref="E3:E6">
     <cfRule type="containsText" dxfId="365" priority="885" operator="containsText" text="_">
-      <formula>NOT(ISERROR(SEARCH("_",J3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("_",E3)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="364" priority="886" operator="containsText" text="Functional">
-      <formula>NOT(ISERROR(SEARCH("Functional",J3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Functional",E3)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="363" priority="887" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
-      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",J3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",E3)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="362" priority="888" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E6">
-    <cfRule type="containsText" dxfId="361" priority="881" operator="containsText" text="_">
-      <formula>NOT(ISERROR(SEARCH("_",E3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="360" priority="882" operator="containsText" text="Functional">
-      <formula>NOT(ISERROR(SEARCH("Functional",E3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="359" priority="883" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
-      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",E3)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="358" priority="884" operator="equal">
+  <conditionalFormatting sqref="P20:XFD22">
+    <cfRule type="containsText" dxfId="361" priority="848" operator="containsText" text="_">
+      <formula>NOT(ISERROR(SEARCH("_",P20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="360" priority="849" operator="containsText" text="Functional">
+      <formula>NOT(ISERROR(SEARCH("Functional",P20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="359" priority="850" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P20)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="358" priority="851" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O20:XFD22">
+  <conditionalFormatting sqref="P3:XFD3 D3:D11 B3:B11">
     <cfRule type="containsText" dxfId="357" priority="844" operator="containsText" text="_">
-      <formula>NOT(ISERROR(SEARCH("_",O20)))</formula>
+      <formula>NOT(ISERROR(SEARCH("_",B3)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="356" priority="845" operator="containsText" text="Functional">
-      <formula>NOT(ISERROR(SEARCH("Functional",O20)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Functional",B3)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="355" priority="846" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
-      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",O20)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B3)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="354" priority="847" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O3:XFD3 D3:D11 B3:B11">
+  <conditionalFormatting sqref="B4 P4:XFD4">
     <cfRule type="containsText" dxfId="353" priority="840" operator="containsText" text="_">
-      <formula>NOT(ISERROR(SEARCH("_",B3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("_",B4)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="352" priority="841" operator="containsText" text="Functional">
-      <formula>NOT(ISERROR(SEARCH("Functional",B3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Functional",B4)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="351" priority="842" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
-      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B4)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="350" priority="843" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4 O4:XFD4">
+  <conditionalFormatting sqref="B5 P5:XFD5">
     <cfRule type="containsText" dxfId="349" priority="836" operator="containsText" text="_">
-      <formula>NOT(ISERROR(SEARCH("_",B4)))</formula>
+      <formula>NOT(ISERROR(SEARCH("_",B5)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="348" priority="837" operator="containsText" text="Functional">
-      <formula>NOT(ISERROR(SEARCH("Functional",B4)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Functional",B5)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="347" priority="838" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
-      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B4)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B5)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="346" priority="839" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5 O5:XFD5">
+  <conditionalFormatting sqref="G20:H20 B21:B23">
     <cfRule type="containsText" dxfId="345" priority="832" operator="containsText" text="_">
-      <formula>NOT(ISERROR(SEARCH("_",B5)))</formula>
+      <formula>NOT(ISERROR(SEARCH("_",B20)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="344" priority="833" operator="containsText" text="Functional">
-      <formula>NOT(ISERROR(SEARCH("Functional",B5)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Functional",B20)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="343" priority="834" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
-      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B5)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B20)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="342" priority="835" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20:H20 B21:B23">
-    <cfRule type="containsText" dxfId="341" priority="828" operator="containsText" text="_">
-      <formula>NOT(ISERROR(SEARCH("_",B20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="340" priority="829" operator="containsText" text="Functional">
-      <formula>NOT(ISERROR(SEARCH("Functional",B20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="339" priority="830" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
-      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B20)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="338" priority="831" operator="equal">
-      <formula>"VNulo"</formula>
+    <cfRule type="containsText" dxfId="341" priority="831" operator="containsText" text="Prop_">
+      <formula>NOT(ISERROR(SEARCH("Prop_",B20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20:H20 B21:B23">
-    <cfRule type="containsText" dxfId="337" priority="827" operator="containsText" text="Prop_">
-      <formula>NOT(ISERROR(SEARCH("Prop_",B20)))</formula>
+    <cfRule type="cellIs" dxfId="340" priority="829" operator="equal">
+      <formula>"sem"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="339" priority="830" operator="containsText" text="ymmetric">
+      <formula>NOT(ISERROR(SEARCH("ymmetric",B20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20:H20 B21:B23">
-    <cfRule type="cellIs" dxfId="336" priority="825" operator="equal">
-      <formula>"sem"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="335" priority="826" operator="containsText" text="ymmetric">
-      <formula>NOT(ISERROR(SEARCH("ymmetric",B20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G20:H20 B21:B23">
-    <cfRule type="containsText" dxfId="334" priority="824" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="338" priority="828" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",B20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="containsText" dxfId="333" priority="823" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="337" priority="827" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",B20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20:F20">
-    <cfRule type="containsText" dxfId="332" priority="822" operator="containsText" text="Prop_">
+    <cfRule type="containsText" dxfId="336" priority="826" operator="containsText" text="Prop_">
       <formula>NOT(ISERROR(SEARCH("Prop_",E20)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B20 O26:XFD26 E20:F20">
-    <cfRule type="containsText" dxfId="331" priority="818" operator="containsText" text="_">
+  <conditionalFormatting sqref="B20 P26:XFD26 E20:F20">
+    <cfRule type="containsText" dxfId="335" priority="822" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="330" priority="819" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="334" priority="823" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="329" priority="820" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="333" priority="824" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B20)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="328" priority="821" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="825" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20:F20">
-    <cfRule type="cellIs" dxfId="327" priority="816" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="820" operator="equal">
       <formula>"sem"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="326" priority="817" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="330" priority="821" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",E20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20:F20">
-    <cfRule type="containsText" dxfId="325" priority="815" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="329" priority="819" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",E20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
+    <cfRule type="containsText" dxfId="328" priority="815" operator="containsText" text="_">
+      <formula>NOT(ISERROR(SEARCH("_",B20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="327" priority="816" operator="containsText" text="Functional">
+      <formula>NOT(ISERROR(SEARCH("Functional",B20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="326" priority="817" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B20)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="325" priority="818" operator="equal">
+      <formula>"VNulo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P28:XFD28">
     <cfRule type="containsText" dxfId="324" priority="811" operator="containsText" text="_">
-      <formula>NOT(ISERROR(SEARCH("_",B20)))</formula>
+      <formula>NOT(ISERROR(SEARCH("_",P28)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="323" priority="812" operator="containsText" text="Functional">
-      <formula>NOT(ISERROR(SEARCH("Functional",B20)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Functional",P28)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="322" priority="813" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
-      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B20)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P28)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="321" priority="814" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O28:XFD28">
+  <conditionalFormatting sqref="P27:XFD27">
     <cfRule type="containsText" dxfId="320" priority="807" operator="containsText" text="_">
-      <formula>NOT(ISERROR(SEARCH("_",O28)))</formula>
+      <formula>NOT(ISERROR(SEARCH("_",P27)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="319" priority="808" operator="containsText" text="Functional">
-      <formula>NOT(ISERROR(SEARCH("Functional",O28)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Functional",P27)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="318" priority="809" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
-      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",O28)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P27)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="317" priority="810" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O27:XFD27">
-    <cfRule type="containsText" dxfId="316" priority="803" operator="containsText" text="_">
-      <formula>NOT(ISERROR(SEARCH("_",O27)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="315" priority="804" operator="containsText" text="Functional">
-      <formula>NOT(ISERROR(SEARCH("Functional",O27)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="314" priority="805" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
-      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",O27)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="313" priority="806" operator="equal">
+  <conditionalFormatting sqref="E21:G23">
+    <cfRule type="containsText" dxfId="316" priority="799" operator="containsText" text="_">
+      <formula>NOT(ISERROR(SEARCH("_",E21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="315" priority="800" operator="containsText" text="Functional">
+      <formula>NOT(ISERROR(SEARCH("Functional",E21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="314" priority="801" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",E21)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="313" priority="802" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E21:G23">
+  <conditionalFormatting sqref="H21:H23">
     <cfRule type="containsText" dxfId="312" priority="795" operator="containsText" text="_">
-      <formula>NOT(ISERROR(SEARCH("_",E21)))</formula>
+      <formula>NOT(ISERROR(SEARCH("_",H21)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="311" priority="796" operator="containsText" text="Functional">
-      <formula>NOT(ISERROR(SEARCH("Functional",E21)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Functional",H21)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="310" priority="797" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
-      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",E21)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",H21)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="309" priority="798" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H21:H23">
-    <cfRule type="containsText" dxfId="308" priority="791" operator="containsText" text="_">
-      <formula>NOT(ISERROR(SEARCH("_",H21)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="307" priority="792" operator="containsText" text="Functional">
-      <formula>NOT(ISERROR(SEARCH("Functional",H21)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="306" priority="793" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
-      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",H21)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="305" priority="794" operator="equal">
-      <formula>"VNulo"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H25:H28">
-    <cfRule type="containsText" dxfId="304" priority="479" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="308" priority="483" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",H25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="303" priority="480" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="307" priority="484" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",H25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="302" priority="481" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="306" priority="485" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",H25)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="301" priority="482" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="486" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="containsText" dxfId="300" priority="478" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="304" priority="482" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",B24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
+    <cfRule type="containsText" dxfId="303" priority="478" operator="containsText" text="_">
+      <formula>NOT(ISERROR(SEARCH("_",B24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="302" priority="479" operator="containsText" text="Functional">
+      <formula>NOT(ISERROR(SEARCH("Functional",B24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="301" priority="480" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B24)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="300" priority="481" operator="equal">
+      <formula>"VNulo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27:E28 E24:F24">
     <cfRule type="containsText" dxfId="299" priority="474" operator="containsText" text="_">
-      <formula>NOT(ISERROR(SEARCH("_",B24)))</formula>
+      <formula>NOT(ISERROR(SEARCH("_",E24)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="298" priority="475" operator="containsText" text="Functional">
-      <formula>NOT(ISERROR(SEARCH("Functional",B24)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Functional",E24)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="297" priority="476" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
-      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B24)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",E24)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="296" priority="477" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E27:E28 E24:F24">
-    <cfRule type="containsText" dxfId="295" priority="470" operator="containsText" text="_">
-      <formula>NOT(ISERROR(SEARCH("_",E24)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="294" priority="471" operator="containsText" text="Functional">
-      <formula>NOT(ISERROR(SEARCH("Functional",E24)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="293" priority="472" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
-      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",E24)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="292" priority="473" operator="equal">
-      <formula>"VNulo"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E27:E28">
-    <cfRule type="containsText" dxfId="291" priority="465" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="295" priority="469" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",E27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
+    <cfRule type="containsText" dxfId="294" priority="465" operator="containsText" text="_">
+      <formula>NOT(ISERROR(SEARCH("_",B24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="293" priority="466" operator="containsText" text="Functional">
+      <formula>NOT(ISERROR(SEARCH("Functional",B24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="292" priority="467" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B24)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="291" priority="468" operator="equal">
+      <formula>"VNulo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25:B28">
     <cfRule type="containsText" dxfId="290" priority="461" operator="containsText" text="_">
-      <formula>NOT(ISERROR(SEARCH("_",B24)))</formula>
+      <formula>NOT(ISERROR(SEARCH("_",B25)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="289" priority="462" operator="containsText" text="Functional">
-      <formula>NOT(ISERROR(SEARCH("Functional",B24)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Functional",B25)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="288" priority="463" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
-      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B24)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B25)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="287" priority="464" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B25:B28">
+  <conditionalFormatting sqref="B24">
     <cfRule type="containsText" dxfId="286" priority="457" operator="containsText" text="_">
-      <formula>NOT(ISERROR(SEARCH("_",B25)))</formula>
+      <formula>NOT(ISERROR(SEARCH("_",B24)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="285" priority="458" operator="containsText" text="Functional">
-      <formula>NOT(ISERROR(SEARCH("Functional",B25)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Functional",B24)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="284" priority="459" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
-      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B25)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B24)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="283" priority="460" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B24">
+  <conditionalFormatting sqref="E25">
     <cfRule type="containsText" dxfId="282" priority="453" operator="containsText" text="_">
-      <formula>NOT(ISERROR(SEARCH("_",B24)))</formula>
+      <formula>NOT(ISERROR(SEARCH("_",E25)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="281" priority="454" operator="containsText" text="Functional">
-      <formula>NOT(ISERROR(SEARCH("Functional",B24)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Functional",E25)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="280" priority="455" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
-      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B24)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",E25)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="279" priority="456" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E25">
+  <conditionalFormatting sqref="E26">
     <cfRule type="containsText" dxfId="278" priority="449" operator="containsText" text="_">
-      <formula>NOT(ISERROR(SEARCH("_",E25)))</formula>
+      <formula>NOT(ISERROR(SEARCH("_",E26)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="277" priority="450" operator="containsText" text="Functional">
-      <formula>NOT(ISERROR(SEARCH("Functional",E25)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Functional",E26)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="276" priority="451" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
-      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",E25)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",E26)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="275" priority="452" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="containsText" dxfId="274" priority="445" operator="containsText" text="_">
-      <formula>NOT(ISERROR(SEARCH("_",E26)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="273" priority="446" operator="containsText" text="Functional">
-      <formula>NOT(ISERROR(SEARCH("Functional",E26)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="272" priority="447" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
-      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",E26)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="271" priority="448" operator="equal">
-      <formula>"VNulo"</formula>
+  <conditionalFormatting sqref="C1:C2 C12">
+    <cfRule type="containsText" dxfId="274" priority="260" operator="containsText" text="Prop_">
+      <formula>NOT(ISERROR(SEARCH("Prop_",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C2 C12">
-    <cfRule type="containsText" dxfId="270" priority="256" operator="containsText" text="Prop_">
-      <formula>NOT(ISERROR(SEARCH("Prop_",C1)))</formula>
+    <cfRule type="cellIs" dxfId="273" priority="258" operator="equal">
+      <formula>"sem"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="272" priority="259" operator="containsText" text="ymmetric">
+      <formula>NOT(ISERROR(SEARCH("ymmetric",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C2 C12">
-    <cfRule type="cellIs" dxfId="269" priority="254" operator="equal">
-      <formula>"sem"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="268" priority="255" operator="containsText" text="ymmetric">
-      <formula>NOT(ISERROR(SEARCH("ymmetric",C1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C2 C12">
-    <cfRule type="containsText" dxfId="267" priority="253" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="271" priority="257" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="containsText" dxfId="266" priority="252" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="270" priority="256" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3 C7:C11">
-    <cfRule type="containsText" dxfId="265" priority="244" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="269" priority="248" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="264" priority="245" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="268" priority="249" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="263" priority="246" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="267" priority="250" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C3)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="262" priority="247" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="251" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C11">
-    <cfRule type="containsText" dxfId="261" priority="243" operator="containsText" text="Prop_">
+    <cfRule type="containsText" dxfId="265" priority="247" operator="containsText" text="Prop_">
       <formula>NOT(ISERROR(SEARCH("Prop_",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C11">
-    <cfRule type="containsText" dxfId="260" priority="239" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="264" priority="243" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="259" priority="240" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="263" priority="244" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="258" priority="241" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="262" priority="245" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C3)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="257" priority="242" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="246" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C11">
-    <cfRule type="cellIs" dxfId="256" priority="237" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="241" operator="equal">
       <formula>"sem"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="255" priority="238" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="259" priority="242" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C11">
-    <cfRule type="containsText" dxfId="254" priority="236" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="258" priority="240" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="containsText" dxfId="253" priority="228" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="257" priority="232" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",C12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="252" priority="229" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="256" priority="233" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",C12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="251" priority="230" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="255" priority="234" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C12)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="231" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="235" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
+    <cfRule type="containsText" dxfId="253" priority="216" operator="containsText" text="_">
+      <formula>NOT(ISERROR(SEARCH("_",C6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="252" priority="217" operator="containsText" text="Functional">
+      <formula>NOT(ISERROR(SEARCH("Functional",C6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="251" priority="218" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C6)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="250" priority="219" operator="equal">
+      <formula>"VNulo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4">
     <cfRule type="containsText" dxfId="249" priority="212" operator="containsText" text="_">
-      <formula>NOT(ISERROR(SEARCH("_",C6)))</formula>
+      <formula>NOT(ISERROR(SEARCH("_",C4)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="248" priority="213" operator="containsText" text="Functional">
-      <formula>NOT(ISERROR(SEARCH("Functional",C6)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Functional",C4)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="247" priority="214" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
-      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C6)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C4)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="246" priority="215" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4">
+  <conditionalFormatting sqref="C5">
     <cfRule type="containsText" dxfId="245" priority="208" operator="containsText" text="_">
-      <formula>NOT(ISERROR(SEARCH("_",C4)))</formula>
+      <formula>NOT(ISERROR(SEARCH("_",C5)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="244" priority="209" operator="containsText" text="Functional">
-      <formula>NOT(ISERROR(SEARCH("Functional",C4)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Functional",C5)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="243" priority="210" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
-      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C4)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C5)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="242" priority="211" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
-    <cfRule type="containsText" dxfId="241" priority="204" operator="containsText" text="_">
-      <formula>NOT(ISERROR(SEARCH("_",C5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="240" priority="205" operator="containsText" text="Functional">
-      <formula>NOT(ISERROR(SEARCH("Functional",C5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="239" priority="206" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
-      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C5)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="207" operator="equal">
-      <formula>"VNulo"</formula>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="containsText" dxfId="241" priority="203" operator="containsText" text="ymmetric">
+      <formula>NOT(ISERROR(SEARCH("ymmetric",C13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="containsText" dxfId="237" priority="199" operator="containsText" text="ymmetric">
-      <formula>NOT(ISERROR(SEARCH("ymmetric",C13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
-    <cfRule type="containsText" dxfId="236" priority="195" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="240" priority="199" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",C13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="235" priority="196" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="239" priority="200" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",C13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="234" priority="197" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="238" priority="201" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C13)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="233" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="202" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="containsText" dxfId="232" priority="194" operator="containsText" text="Prop_">
+    <cfRule type="containsText" dxfId="236" priority="198" operator="containsText" text="Prop_">
       <formula>NOT(ISERROR(SEARCH("Prop_",C20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="containsText" dxfId="231" priority="190" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="235" priority="194" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",C20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="230" priority="191" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="234" priority="195" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",C20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="229" priority="192" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="233" priority="196" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C20)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="193" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="197" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="cellIs" dxfId="227" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="192" operator="equal">
       <formula>"sem"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="226" priority="189" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="230" priority="193" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",C20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="containsText" dxfId="225" priority="187" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="229" priority="191" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",C20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:C28">
-    <cfRule type="containsText" dxfId="224" priority="179" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="228" priority="183" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",C21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="223" priority="180" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="227" priority="184" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",C21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="222" priority="181" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="226" priority="185" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C21)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="221" priority="182" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="186" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="containsText" dxfId="220" priority="178" operator="containsText" text="Prop_">
+    <cfRule type="containsText" dxfId="224" priority="182" operator="containsText" text="Prop_">
       <formula>NOT(ISERROR(SEARCH("Prop_",C12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="containsText" dxfId="219" priority="174" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="223" priority="178" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",C12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="218" priority="175" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="222" priority="179" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",C12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="217" priority="176" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="221" priority="180" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C12)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="177" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="181" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="215" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="176" operator="equal">
       <formula>"sem"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="214" priority="173" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="218" priority="177" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",C12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="containsText" dxfId="213" priority="171" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="217" priority="175" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",C12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:D23">
+    <cfRule type="containsText" dxfId="216" priority="155" operator="containsText" text="_">
+      <formula>NOT(ISERROR(SEARCH("_",D21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="215" priority="156" operator="containsText" text="Functional">
+      <formula>NOT(ISERROR(SEARCH("Functional",D21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="214" priority="157" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D21)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="213" priority="158" operator="equal">
+      <formula>"VNulo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:D28">
     <cfRule type="containsText" dxfId="212" priority="151" operator="containsText" text="_">
-      <formula>NOT(ISERROR(SEARCH("_",D21)))</formula>
+      <formula>NOT(ISERROR(SEARCH("_",D25)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="211" priority="152" operator="containsText" text="Functional">
-      <formula>NOT(ISERROR(SEARCH("Functional",D21)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Functional",D25)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="210" priority="153" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
-      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D21)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D25)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="209" priority="154" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D25:D28">
-    <cfRule type="containsText" dxfId="208" priority="147" operator="containsText" text="_">
-      <formula>NOT(ISERROR(SEARCH("_",D25)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="207" priority="148" operator="containsText" text="Functional">
-      <formula>NOT(ISERROR(SEARCH("Functional",D25)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="206" priority="149" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
-      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D25)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="150" operator="equal">
+  <conditionalFormatting sqref="N6">
+    <cfRule type="containsText" dxfId="208" priority="135" operator="containsText" text="_">
+      <formula>NOT(ISERROR(SEARCH("_",N6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="207" priority="136" operator="containsText" text="Functional">
+      <formula>NOT(ISERROR(SEARCH("Functional",N6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="206" priority="137" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N6)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="205" priority="138" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N6">
+  <conditionalFormatting sqref="N5">
     <cfRule type="containsText" dxfId="204" priority="131" operator="containsText" text="_">
-      <formula>NOT(ISERROR(SEARCH("_",N6)))</formula>
+      <formula>NOT(ISERROR(SEARCH("_",N5)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="203" priority="132" operator="containsText" text="Functional">
-      <formula>NOT(ISERROR(SEARCH("Functional",N6)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Functional",N5)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="202" priority="133" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
-      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N6)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N5)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="201" priority="134" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N5">
+  <conditionalFormatting sqref="N4:N6">
     <cfRule type="containsText" dxfId="200" priority="127" operator="containsText" text="_">
-      <formula>NOT(ISERROR(SEARCH("_",N5)))</formula>
+      <formula>NOT(ISERROR(SEARCH("_",N4)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="199" priority="128" operator="containsText" text="Functional">
-      <formula>NOT(ISERROR(SEARCH("Functional",N5)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Functional",N4)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="198" priority="129" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
-      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N5)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N4)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="197" priority="130" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N4:N6">
+  <conditionalFormatting sqref="N3:N5">
     <cfRule type="containsText" dxfId="196" priority="123" operator="containsText" text="_">
-      <formula>NOT(ISERROR(SEARCH("_",N4)))</formula>
+      <formula>NOT(ISERROR(SEARCH("_",N3)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="195" priority="124" operator="containsText" text="Functional">
-      <formula>NOT(ISERROR(SEARCH("Functional",N4)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Functional",N3)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="194" priority="125" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
-      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N4)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N3)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="193" priority="126" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N3:N5">
-    <cfRule type="containsText" dxfId="192" priority="119" operator="containsText" text="_">
-      <formula>NOT(ISERROR(SEARCH("_",N3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="191" priority="120" operator="containsText" text="Functional">
-      <formula>NOT(ISERROR(SEARCH("Functional",N3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="190" priority="121" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
-      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N3)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="122" operator="equal">
-      <formula>"VNulo"</formula>
+  <conditionalFormatting sqref="N20">
+    <cfRule type="containsText" dxfId="192" priority="122" operator="containsText" text="Prop_">
+      <formula>NOT(ISERROR(SEARCH("Prop_",N20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N20">
-    <cfRule type="containsText" dxfId="188" priority="118" operator="containsText" text="Prop_">
-      <formula>NOT(ISERROR(SEARCH("Prop_",N20)))</formula>
+    <cfRule type="containsText" dxfId="191" priority="118" operator="containsText" text="_">
+      <formula>NOT(ISERROR(SEARCH("_",N20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="190" priority="119" operator="containsText" text="Functional">
+      <formula>NOT(ISERROR(SEARCH("Functional",N20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="189" priority="120" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N20)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="188" priority="121" operator="equal">
+      <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N20">
-    <cfRule type="containsText" dxfId="187" priority="114" operator="containsText" text="_">
-      <formula>NOT(ISERROR(SEARCH("_",N20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="186" priority="115" operator="containsText" text="Functional">
-      <formula>NOT(ISERROR(SEARCH("Functional",N20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="185" priority="116" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
-      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N20)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="117" operator="equal">
-      <formula>"VNulo"</formula>
+    <cfRule type="cellIs" dxfId="187" priority="116" operator="equal">
+      <formula>"sem"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="186" priority="117" operator="containsText" text="ymmetric">
+      <formula>NOT(ISERROR(SEARCH("ymmetric",N20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N20">
-    <cfRule type="cellIs" dxfId="183" priority="112" operator="equal">
-      <formula>"sem"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="182" priority="113" operator="containsText" text="ymmetric">
-      <formula>NOT(ISERROR(SEARCH("ymmetric",N20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N20">
-    <cfRule type="containsText" dxfId="181" priority="111" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="185" priority="115" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",N20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N24">
+    <cfRule type="containsText" dxfId="184" priority="111" operator="containsText" text="_">
+      <formula>NOT(ISERROR(SEARCH("_",N24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="183" priority="112" operator="containsText" text="Functional">
+      <formula>NOT(ISERROR(SEARCH("Functional",N24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="182" priority="113" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N24)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="181" priority="114" operator="equal">
+      <formula>"VNulo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N25:N28">
     <cfRule type="containsText" dxfId="180" priority="107" operator="containsText" text="_">
-      <formula>NOT(ISERROR(SEARCH("_",N24)))</formula>
+      <formula>NOT(ISERROR(SEARCH("_",N25)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="179" priority="108" operator="containsText" text="Functional">
-      <formula>NOT(ISERROR(SEARCH("Functional",N24)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Functional",N25)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="178" priority="109" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
-      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N24)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N25)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="177" priority="110" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N25:N28">
-    <cfRule type="containsText" dxfId="176" priority="103" operator="containsText" text="_">
-      <formula>NOT(ISERROR(SEARCH("_",N25)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="175" priority="104" operator="containsText" text="Functional">
-      <formula>NOT(ISERROR(SEARCH("Functional",N25)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="174" priority="105" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
-      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N25)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="106" operator="equal">
-      <formula>"VNulo"</formula>
+  <conditionalFormatting sqref="N12">
+    <cfRule type="containsText" dxfId="176" priority="106" operator="containsText" text="Prop_">
+      <formula>NOT(ISERROR(SEARCH("Prop_",N12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N12">
-    <cfRule type="containsText" dxfId="172" priority="102" operator="containsText" text="Prop_">
-      <formula>NOT(ISERROR(SEARCH("Prop_",N12)))</formula>
+    <cfRule type="containsText" dxfId="175" priority="102" operator="containsText" text="_">
+      <formula>NOT(ISERROR(SEARCH("_",N12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="174" priority="103" operator="containsText" text="Functional">
+      <formula>NOT(ISERROR(SEARCH("Functional",N12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="173" priority="104" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N12)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="172" priority="105" operator="equal">
+      <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N12">
-    <cfRule type="containsText" dxfId="171" priority="98" operator="containsText" text="_">
-      <formula>NOT(ISERROR(SEARCH("_",N12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="170" priority="99" operator="containsText" text="Functional">
-      <formula>NOT(ISERROR(SEARCH("Functional",N12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="169" priority="100" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
-      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N12)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="101" operator="equal">
-      <formula>"VNulo"</formula>
+    <cfRule type="cellIs" dxfId="171" priority="100" operator="equal">
+      <formula>"sem"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="170" priority="101" operator="containsText" text="ymmetric">
+      <formula>NOT(ISERROR(SEARCH("ymmetric",N12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N12">
-    <cfRule type="cellIs" dxfId="167" priority="96" operator="equal">
-      <formula>"sem"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="166" priority="97" operator="containsText" text="ymmetric">
-      <formula>NOT(ISERROR(SEARCH("ymmetric",N12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N12">
-    <cfRule type="containsText" dxfId="165" priority="95" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="169" priority="99" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",N12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6:N11">
+    <cfRule type="containsText" dxfId="168" priority="91" operator="containsText" text="_">
+      <formula>NOT(ISERROR(SEARCH("_",N6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="167" priority="92" operator="containsText" text="Functional">
+      <formula>NOT(ISERROR(SEARCH("Functional",N6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="166" priority="93" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N6)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="165" priority="94" operator="equal">
+      <formula>"VNulo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
     <cfRule type="containsText" dxfId="164" priority="87" operator="containsText" text="_">
-      <formula>NOT(ISERROR(SEARCH("_",N6)))</formula>
+      <formula>NOT(ISERROR(SEARCH("_",D12)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="163" priority="88" operator="containsText" text="Functional">
-      <formula>NOT(ISERROR(SEARCH("Functional",N6)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Functional",D12)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="162" priority="89" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
-      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N6)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D12)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="161" priority="90" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
+  <conditionalFormatting sqref="D20">
     <cfRule type="containsText" dxfId="160" priority="83" operator="containsText" text="_">
-      <formula>NOT(ISERROR(SEARCH("_",D12)))</formula>
+      <formula>NOT(ISERROR(SEARCH("_",D20)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="159" priority="84" operator="containsText" text="Functional">
-      <formula>NOT(ISERROR(SEARCH("Functional",D12)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Functional",D20)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="158" priority="85" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
-      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D12)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D20)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="157" priority="86" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
+  <conditionalFormatting sqref="D24">
     <cfRule type="containsText" dxfId="156" priority="79" operator="containsText" text="_">
-      <formula>NOT(ISERROR(SEARCH("_",D20)))</formula>
+      <formula>NOT(ISERROR(SEARCH("_",D24)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="155" priority="80" operator="containsText" text="Functional">
-      <formula>NOT(ISERROR(SEARCH("Functional",D20)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Functional",D24)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="154" priority="81" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
-      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D20)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D24)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="153" priority="82" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
+  <conditionalFormatting sqref="N21:N23">
     <cfRule type="containsText" dxfId="152" priority="75" operator="containsText" text="_">
-      <formula>NOT(ISERROR(SEARCH("_",D24)))</formula>
+      <formula>NOT(ISERROR(SEARCH("_",N21)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="151" priority="76" operator="containsText" text="Functional">
-      <formula>NOT(ISERROR(SEARCH("Functional",D24)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Functional",N21)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="150" priority="77" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
-      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D24)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N21)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="149" priority="78" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N21:N23">
-    <cfRule type="containsText" dxfId="148" priority="71" operator="containsText" text="_">
-      <formula>NOT(ISERROR(SEARCH("_",N21)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="147" priority="72" operator="containsText" text="Functional">
-      <formula>NOT(ISERROR(SEARCH("Functional",N21)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="146" priority="73" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
-      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N21)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="74" operator="equal">
-      <formula>"VNulo"</formula>
+    <cfRule type="containsText" dxfId="148" priority="74" operator="containsText" text="Prop_">
+      <formula>NOT(ISERROR(SEARCH("Prop_",N21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N21:N23">
-    <cfRule type="containsText" dxfId="144" priority="70" operator="containsText" text="Prop_">
-      <formula>NOT(ISERROR(SEARCH("Prop_",N21)))</formula>
+    <cfRule type="cellIs" dxfId="147" priority="72" operator="equal">
+      <formula>"sem"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="146" priority="73" operator="containsText" text="ymmetric">
+      <formula>NOT(ISERROR(SEARCH("ymmetric",N21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N21:N23">
-    <cfRule type="cellIs" dxfId="143" priority="68" operator="equal">
-      <formula>"sem"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="142" priority="69" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="145" priority="71" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",N21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N21:N23">
-    <cfRule type="containsText" dxfId="141" priority="67" operator="containsText" text="ymmetric">
-      <formula>NOT(ISERROR(SEARCH("ymmetric",N21)))</formula>
+    <cfRule type="containsText" dxfId="144" priority="67" operator="containsText" text="_">
+      <formula>NOT(ISERROR(SEARCH("_",N21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="143" priority="68" operator="containsText" text="Functional">
+      <formula>NOT(ISERROR(SEARCH("Functional",N21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="142" priority="69" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N21)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="141" priority="70" operator="equal">
+      <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N21:N23">
+  <conditionalFormatting sqref="P16:XFD16">
     <cfRule type="containsText" dxfId="140" priority="63" operator="containsText" text="_">
-      <formula>NOT(ISERROR(SEARCH("_",N21)))</formula>
+      <formula>NOT(ISERROR(SEARCH("_",P16)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="139" priority="64" operator="containsText" text="Functional">
-      <formula>NOT(ISERROR(SEARCH("Functional",N21)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Functional",P16)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="138" priority="65" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
-      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N21)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P16)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="137" priority="66" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O16:XFD16">
+  <conditionalFormatting sqref="E16:F16">
     <cfRule type="containsText" dxfId="136" priority="59" operator="containsText" text="_">
-      <formula>NOT(ISERROR(SEARCH("_",O16)))</formula>
+      <formula>NOT(ISERROR(SEARCH("_",E16)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="135" priority="60" operator="containsText" text="Functional">
-      <formula>NOT(ISERROR(SEARCH("Functional",O16)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Functional",E16)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="134" priority="61" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
-      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",O16)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",E16)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="133" priority="62" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E16:F16">
-    <cfRule type="containsText" dxfId="132" priority="55" operator="containsText" text="_">
-      <formula>NOT(ISERROR(SEARCH("_",E16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="131" priority="56" operator="containsText" text="Functional">
-      <formula>NOT(ISERROR(SEARCH("Functional",E16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="57" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
-      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",E16)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="58" operator="equal">
-      <formula>"VNulo"</formula>
+  <conditionalFormatting sqref="B16">
+    <cfRule type="containsText" dxfId="132" priority="54" operator="containsText" text="ymmetric">
+      <formula>NOT(ISERROR(SEARCH("ymmetric",B16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="containsText" dxfId="128" priority="50" operator="containsText" text="ymmetric">
-      <formula>NOT(ISERROR(SEARCH("ymmetric",B16)))</formula>
+    <cfRule type="containsText" dxfId="131" priority="50" operator="containsText" text="_">
+      <formula>NOT(ISERROR(SEARCH("_",B16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="130" priority="51" operator="containsText" text="Functional">
+      <formula>NOT(ISERROR(SEARCH("Functional",B16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="129" priority="52" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B16)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="128" priority="53" operator="equal">
+      <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
@@ -21181,125 +21433,125 @@
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B16">
-    <cfRule type="containsText" dxfId="123" priority="42" operator="containsText" text="_">
-      <formula>NOT(ISERROR(SEARCH("_",B16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="122" priority="43" operator="containsText" text="Functional">
-      <formula>NOT(ISERROR(SEARCH("Functional",B16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="121" priority="44" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
-      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B16)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="45" operator="equal">
-      <formula>"VNulo"</formula>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="containsText" dxfId="123" priority="45" operator="containsText" text="Prop_">
+      <formula>NOT(ISERROR(SEARCH("Prop_",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="containsText" dxfId="119" priority="41" operator="containsText" text="Prop_">
-      <formula>NOT(ISERROR(SEARCH("Prop_",C16)))</formula>
+    <cfRule type="cellIs" dxfId="122" priority="43" operator="equal">
+      <formula>"sem"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="121" priority="44" operator="containsText" text="ymmetric">
+      <formula>NOT(ISERROR(SEARCH("ymmetric",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="cellIs" dxfId="118" priority="39" operator="equal">
-      <formula>"sem"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="40" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="120" priority="42" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="containsText" dxfId="116" priority="38" operator="containsText" text="ymmetric">
-      <formula>NOT(ISERROR(SEARCH("ymmetric",C16)))</formula>
+    <cfRule type="containsText" dxfId="119" priority="34" operator="containsText" text="_">
+      <formula>NOT(ISERROR(SEARCH("_",C16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="118" priority="35" operator="containsText" text="Functional">
+      <formula>NOT(ISERROR(SEARCH("Functional",C16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="117" priority="36" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C16)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="116" priority="37" operator="equal">
+      <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="containsText" dxfId="115" priority="30" operator="containsText" text="_">
-      <formula>NOT(ISERROR(SEARCH("_",C16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="114" priority="31" operator="containsText" text="Functional">
-      <formula>NOT(ISERROR(SEARCH("Functional",C16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="113" priority="32" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
-      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C16)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="33" operator="equal">
-      <formula>"VNulo"</formula>
+    <cfRule type="containsText" dxfId="115" priority="24" operator="containsText" text="Prop_">
+      <formula>NOT(ISERROR(SEARCH("Prop_",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="containsText" dxfId="111" priority="20" operator="containsText" text="Prop_">
-      <formula>NOT(ISERROR(SEARCH("Prop_",C16)))</formula>
+    <cfRule type="containsText" dxfId="114" priority="20" operator="containsText" text="_">
+      <formula>NOT(ISERROR(SEARCH("_",C16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="113" priority="21" operator="containsText" text="Functional">
+      <formula>NOT(ISERROR(SEARCH("Functional",C16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="112" priority="22" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C16)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="111" priority="23" operator="equal">
+      <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="containsText" dxfId="110" priority="16" operator="containsText" text="_">
-      <formula>NOT(ISERROR(SEARCH("_",C16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="17" operator="containsText" text="Functional">
-      <formula>NOT(ISERROR(SEARCH("Functional",C16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="108" priority="18" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
-      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C16)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="19" operator="equal">
-      <formula>"VNulo"</formula>
+    <cfRule type="cellIs" dxfId="110" priority="18" operator="equal">
+      <formula>"sem"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="109" priority="19" operator="containsText" text="ymmetric">
+      <formula>NOT(ISERROR(SEARCH("ymmetric",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="cellIs" dxfId="106" priority="14" operator="equal">
-      <formula>"sem"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="15" operator="containsText" text="ymmetric">
-      <formula>NOT(ISERROR(SEARCH("ymmetric",C16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="containsText" dxfId="104" priority="13" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="108" priority="17" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16">
-    <cfRule type="containsText" dxfId="103" priority="12" operator="containsText" text="Prop_">
+    <cfRule type="containsText" dxfId="107" priority="16" operator="containsText" text="Prop_">
       <formula>NOT(ISERROR(SEARCH("Prop_",N16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16">
-    <cfRule type="containsText" dxfId="102" priority="8" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="106" priority="12" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="101" priority="9" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="105" priority="13" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="100" priority="10" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="104" priority="14" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N16)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="15" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16">
-    <cfRule type="cellIs" dxfId="98" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="10" operator="equal">
       <formula>"sem"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="7" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="101" priority="11" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",N16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16">
-    <cfRule type="containsText" dxfId="96" priority="5" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="100" priority="9" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",N16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
+    <cfRule type="containsText" dxfId="99" priority="5" operator="containsText" text="_">
+      <formula>NOT(ISERROR(SEARCH("_",D16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="98" priority="6" operator="containsText" text="Functional">
+      <formula>NOT(ISERROR(SEARCH("Functional",D16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="97" priority="7" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D16)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="8" operator="equal">
+      <formula>"VNulo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O65:O1048576 O1:O28">
     <cfRule type="containsText" dxfId="95" priority="1" operator="containsText" text="_">
-      <formula>NOT(ISERROR(SEARCH("_",D16)))</formula>
+      <formula>NOT(ISERROR(SEARCH("_",O1)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="94" priority="2" operator="containsText" text="Functional">
-      <formula>NOT(ISERROR(SEARCH("Functional",D16)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Functional",O1)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="93" priority="3" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
-      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D16)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",O1)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="92" priority="4" operator="equal">
       <formula>"VNulo"</formula>
@@ -21317,7 +21569,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CC16DFF-EFED-4A4F-AD49-C719B19693F4}">
   <dimension ref="A1:F559"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
@@ -23234,113 +23486,113 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:E7 D7:F7 D2:F5 A1:XFD1 G4:XFD4 F6:XFD6 A2:C11 A12">
-    <cfRule type="containsText" dxfId="3" priority="224" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="86" priority="224" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="225" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="85" priority="225" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="226" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="84" priority="226" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",A1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="227" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="227" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:F1">
-    <cfRule type="cellIs" dxfId="86" priority="222" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="222" operator="equal">
       <formula>"sem"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="223" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="81" priority="223" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:F1">
-    <cfRule type="containsText" dxfId="84" priority="221" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="80" priority="221" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:F8">
-    <cfRule type="containsText" dxfId="83" priority="65" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="79" priority="65" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="66" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="78" priority="66" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="67" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="77" priority="67" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D8)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="68" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:E9">
-    <cfRule type="containsText" dxfId="79" priority="49" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="75" priority="49" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="50" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="74" priority="50" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="51" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="73" priority="51" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D9)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="52" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9 D10:F10">
-    <cfRule type="containsText" dxfId="75" priority="45" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="71" priority="45" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="46" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="70" priority="46" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="47" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="69" priority="47" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D9)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="48" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:F11">
-    <cfRule type="containsText" dxfId="71" priority="41" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="67" priority="41" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="42" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="66" priority="42" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="43" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="65" priority="43" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D11)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="44" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:C12">
-    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="63" priority="5" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="6" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="62" priority="6" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="61" priority="7" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B12)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="8" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:F12">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="59" priority="1" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="58" priority="2" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="57" priority="3" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D12)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="4" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25654,90 +25906,90 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A551:B1048576">
-    <cfRule type="containsText" dxfId="67" priority="89" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="55" priority="89" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",A551)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="90" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="54" priority="90" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",A551)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="91" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="53" priority="91" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",A551)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="92" operator="equal">
       <formula>"ClaNula"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A551:B1048576 C1:I1">
-    <cfRule type="containsText" dxfId="63" priority="88" operator="containsText" text="Prop_">
+    <cfRule type="containsText" dxfId="51" priority="88" operator="containsText" text="Prop_">
       <formula>NOT(ISERROR(SEARCH("Prop_",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:I2 A2:C3 A1:XFD1 F3:G3">
-    <cfRule type="containsText" dxfId="62" priority="84" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="50" priority="84" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="85" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="49" priority="85" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="86" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="48" priority="86" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",A1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="87" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:I1">
-    <cfRule type="cellIs" dxfId="58" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="82" operator="equal">
       <formula>"sem"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="83" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="45" priority="83" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:I1">
-    <cfRule type="containsText" dxfId="56" priority="81" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="44" priority="81" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:XFD2">
-    <cfRule type="containsText" dxfId="55" priority="77" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="43" priority="77" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="78" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="42" priority="78" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="79" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="41" priority="79" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",J2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="80" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:E3 H3:I3">
-    <cfRule type="containsText" dxfId="51" priority="61" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="39" priority="61" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="62" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="38" priority="62" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="63" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="37" priority="63" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D3)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="64" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:XFD3">
-    <cfRule type="containsText" dxfId="47" priority="57" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="35" priority="57" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="58" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="34" priority="58" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="59" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="33" priority="59" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",J3)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="60" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25750,8 +26002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC0DD10C-E9F5-4D84-A560-B18BDDB397C6}">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25936,114 +26188,114 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A4 M1:O4 J1:K4">
-    <cfRule type="containsText" dxfId="43" priority="29" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="31" priority="29" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="30" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="30" priority="30" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="31" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="29" priority="31" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",A1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="32" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C4">
-    <cfRule type="containsText" dxfId="39" priority="25" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="27" priority="25" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="26" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="26" priority="26" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="27" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="25" priority="27" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="28" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:E1 B1:B4 G1:I1">
-    <cfRule type="containsText" dxfId="35" priority="21" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="23" priority="21" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="22" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="22" priority="22" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="23" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="21" priority="23" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="24" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F4">
-    <cfRule type="containsText" dxfId="31" priority="17" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="18" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="19" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",F1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:E2 G2:I2">
-    <cfRule type="containsText" dxfId="27" priority="13" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="15" priority="13" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="14" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="14" priority="14" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="15" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:E3 G3:I3">
-    <cfRule type="containsText" dxfId="23" priority="9" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="10" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="11" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D3)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:E4 G4:I4">
-    <cfRule type="containsText" dxfId="19" priority="5" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="6" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="7" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D4)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L4">
-    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",L1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",L1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",L1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Ontologia_ambientes.xlsx
+++ b/Ontologia_ambientes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JLMenegotto\Projetos\OntoBIM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05512A49-F988-479A-8634-344E24B23078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE64B72-B4AE-4F24-BA6D-E66CCFC77BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{54713FF2-A43C-4A02-94D3-353C9CB17DF5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{54713FF2-A43C-4A02-94D3-353C9CB17DF5}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjInfo" sheetId="6" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3292" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3304" uniqueCount="536">
   <si>
     <t>IfcPolyline</t>
   </si>
@@ -1625,33 +1625,6 @@
     <t>Valor do Layer do elemento</t>
   </si>
   <si>
-    <t>Nome do Ambiente</t>
-  </si>
-  <si>
-    <t>Código do Ambiente</t>
-  </si>
-  <si>
-    <t>Número do Ambiente</t>
-  </si>
-  <si>
-    <t>Largura mínima do ambiente</t>
-  </si>
-  <si>
-    <t>Profundidade mínima do ambiente</t>
-  </si>
-  <si>
-    <t>Pédireito mínimo do ambiente</t>
-  </si>
-  <si>
-    <t>Largura adotada para o ambiente</t>
-  </si>
-  <si>
-    <t>Pédireito adotado para o ambiente</t>
-  </si>
-  <si>
-    <t>O ambiente é subordinado à articulação de outro ambiente</t>
-  </si>
-  <si>
     <t xml:space="preserve">Código do Bloco A, B, C... </t>
   </si>
   <si>
@@ -1673,22 +1646,67 @@
     <t>Dados com os valores adotados no projeto</t>
   </si>
   <si>
-    <t>Profundidade adotada para o ambiente</t>
-  </si>
-  <si>
     <t>Dados para Geolocalização dos elementos</t>
   </si>
   <si>
     <t>Articulação espaço funcional dos ambientes 1 = true,  0 = false</t>
   </si>
   <si>
-    <t>O ambiente é articulador espacial de outros ambientes</t>
-  </si>
-  <si>
-    <t>O ambiente está conectado a outro ambiente</t>
-  </si>
-  <si>
-    <t>O ambiente é adjacente a outro ambiente</t>
+    <t>Nome do Elemento</t>
+  </si>
+  <si>
+    <t>Código do Elemento</t>
+  </si>
+  <si>
+    <t>Número do Elemento</t>
+  </si>
+  <si>
+    <t>Largura mínima do Elemento</t>
+  </si>
+  <si>
+    <t>Profundidade mínima do Elemento</t>
+  </si>
+  <si>
+    <t>Pédireito mínimo do Elemento</t>
+  </si>
+  <si>
+    <t>Largura adotada para o Elemento</t>
+  </si>
+  <si>
+    <t>Profundidade adotada para o Elemento</t>
+  </si>
+  <si>
+    <t>Pédireito adotado para o Elemento</t>
+  </si>
+  <si>
+    <t>o Elemento é articulador espacial de outros ambientes</t>
+  </si>
+  <si>
+    <t>o Elemento é subordinado à articulação de outro Elemento</t>
+  </si>
+  <si>
+    <t>o Elemento está conectado a outro Elemento</t>
+  </si>
+  <si>
+    <t>o Elemento é adjacente a outro Elemento</t>
+  </si>
+  <si>
+    <t>Disjuntas 6</t>
+  </si>
+  <si>
+    <t>Disjuntas 7</t>
+  </si>
+  <si>
+    <t>Disjuntas 8</t>
+  </si>
+  <si>
+    <t>Disjuntas 9</t>
+  </si>
+  <si>
+    <t>Disjuntas 10</t>
+  </si>
+  <si>
+    <t>TemaOntologia</t>
   </si>
 </sst>
 </file>
@@ -6295,10 +6313,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FC8FF4B-54F2-49C1-9780-3A24189E7C2F}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6314,7 +6332,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="10" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>209</v>
       </c>
@@ -6322,115 +6340,123 @@
         <v>246</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B4" s="6" t="s">
         <v>197</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>198</v>
+        <v>182</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>247</v>
+        <v>202</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="B9" s="9">
-        <v>100</v>
+        <v>191</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>1</v>
+        <v>190</v>
+      </c>
+      <c r="B10" s="9">
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>186</v>
+        <v>177</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B15" s="6" t="s">
         <v>194</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B17" s="6" t="s">
         <v>201</v>
       </c>
     </row>
@@ -13290,9 +13316,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C443A3DD-080C-431B-94F2-F6282C8E2BED}">
   <dimension ref="A1:O62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L1" sqref="L1:L1048576"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="10.8" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -16519,11 +16545,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E05745E6-4BCE-4DB3-BA79-65D069C44F12}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="11.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -16533,12 +16559,12 @@
     <col min="3" max="3" width="8.88671875" style="2" customWidth="1"/>
     <col min="4" max="4" width="11" style="2" customWidth="1"/>
     <col min="5" max="5" width="10.88671875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="2" customWidth="1"/>
-    <col min="7" max="215" width="2.33203125" style="2" customWidth="1"/>
+    <col min="6" max="11" width="9.44140625" style="2" customWidth="1"/>
+    <col min="12" max="215" width="2.33203125" style="2" customWidth="1"/>
     <col min="216" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="42" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="42" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="40">
         <v>1</v>
       </c>
@@ -16557,8 +16583,23 @@
       <c r="F1" s="41" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G1" s="41" t="s">
+        <v>530</v>
+      </c>
+      <c r="H1" s="41" t="s">
+        <v>531</v>
+      </c>
+      <c r="I1" s="41" t="s">
+        <v>532</v>
+      </c>
+      <c r="J1" s="41" t="s">
+        <v>533</v>
+      </c>
+      <c r="K1" s="41" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="40">
         <v>2</v>
       </c>
@@ -16577,10 +16618,25 @@
       <c r="F2" s="11" t="s">
         <v>210</v>
       </c>
+      <c r="G2" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>210</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G2:XFD2 A1:XFD1 A2:D2 A3:XFD1048576">
+  <conditionalFormatting sqref="L2:XFD2 A2:D2 A3:XFD1048576 A1:XFD1">
     <cfRule type="containsText" dxfId="427" priority="60" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",A1)))</formula>
     </cfRule>
@@ -16594,7 +16650,7 @@
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:F2">
+  <conditionalFormatting sqref="E2:K2">
     <cfRule type="containsText" dxfId="423" priority="9" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",E2)))</formula>
     </cfRule>
@@ -16617,9 +16673,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62272EF8-F168-46E8-B331-113C6804F082}">
   <dimension ref="A1:O607"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
+    <sheetView topLeftCell="D1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="8.4" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -16970,7 +17026,7 @@
         <v>219</v>
       </c>
       <c r="O7" s="52" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="2" customFormat="1" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -17018,7 +17074,7 @@
         <v>219</v>
       </c>
       <c r="O8" s="52" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -17066,7 +17122,7 @@
         <v>219</v>
       </c>
       <c r="O9" s="52" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="2" customFormat="1" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -17114,7 +17170,7 @@
         <v>219</v>
       </c>
       <c r="O10" s="52" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
     </row>
     <row r="11" spans="1:15" s="2" customFormat="1" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -17162,7 +17218,7 @@
         <v>219</v>
       </c>
       <c r="O11" s="52" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -17212,7 +17268,7 @@
         <v>210</v>
       </c>
       <c r="O12" s="52" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -17260,7 +17316,7 @@
         <v>393</v>
       </c>
       <c r="O13" s="52" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -17308,7 +17364,7 @@
         <v>393</v>
       </c>
       <c r="O14" s="52" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="2" customFormat="1" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -17356,7 +17412,7 @@
         <v>393</v>
       </c>
       <c r="O15" s="52" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
     </row>
     <row r="16" spans="1:15" s="2" customFormat="1" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -17406,7 +17462,7 @@
         <v>210</v>
       </c>
       <c r="O16" s="52" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
     </row>
     <row r="17" spans="1:15" s="2" customFormat="1" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -17454,7 +17510,7 @@
         <v>393</v>
       </c>
       <c r="O17" s="52" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
     </row>
     <row r="18" spans="1:15" s="2" customFormat="1" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -17550,7 +17606,7 @@
         <v>393</v>
       </c>
       <c r="O19" s="52" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
     </row>
     <row r="20" spans="1:15" s="2" customFormat="1" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -17600,7 +17656,7 @@
         <v>210</v>
       </c>
       <c r="O20" s="52" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
     </row>
     <row r="21" spans="1:15" s="2" customFormat="1" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -17648,7 +17704,7 @@
         <v>393</v>
       </c>
       <c r="O21" s="52" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
     </row>
     <row r="22" spans="1:15" s="2" customFormat="1" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -17696,7 +17752,7 @@
         <v>393</v>
       </c>
       <c r="O22" s="52" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
     </row>
     <row r="23" spans="1:15" s="2" customFormat="1" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -17744,7 +17800,7 @@
         <v>393</v>
       </c>
       <c r="O23" s="52" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
     </row>
     <row r="24" spans="1:15" s="2" customFormat="1" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -17794,7 +17850,7 @@
         <v>210</v>
       </c>
       <c r="O24" s="52" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
     </row>
     <row r="25" spans="1:15" s="2" customFormat="1" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -17843,7 +17899,7 @@
         <v>361</v>
       </c>
       <c r="O25" s="52" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="26" spans="1:15" s="2" customFormat="1" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -17892,7 +17948,7 @@
         <v>361</v>
       </c>
       <c r="O26" s="52" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
     </row>
     <row r="27" spans="1:15" s="2" customFormat="1" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
